--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="45" windowWidth="4110" windowHeight="9420"/>
+    <workbookView xWindow="7485" yWindow="75" windowWidth="13020" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="distribute" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,23 +870,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10092-10102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10103-10114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10115-10127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10128-10137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20043-20044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10092-10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102-10113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10114-10126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10127-10136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10075-10077</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,10 +1294,10 @@
   <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1370,11 +1374,11 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C18" si="0">A3</f>
+        <f t="shared" ref="C3:C21" si="0">A3</f>
         <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1401,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1428,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1455,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1482,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1536,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1563,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1590,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1617,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1644,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1698,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1788,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H18" s="10">
         <v>20039</v>
@@ -1805,7 +1809,8 @@
         <v>213</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="D19" s="6">
         <v>65</v>
@@ -1834,7 +1839,8 @@
         <v>210</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="D20" s="6">
         <v>70</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H20" s="5">
         <v>20041</v>
@@ -1863,7 +1869,8 @@
         <v>217</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D21" s="6">
         <v>80</v>
@@ -1875,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H21" s="5">
         <v>20042</v>
@@ -1902,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -1946,10 +1953,10 @@
         <v>207</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D24" s="6">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1957,11 +1964,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="5">
-        <v>0</v>
+      <c r="G24" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>20045</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>66</v>
@@ -2236,10 +2243,10 @@
         <v>209</v>
       </c>
       <c r="C34" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D34" s="6">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2247,11 +2254,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="5">
-        <v>0</v>
+      <c r="G34" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>20046</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>64</v>
@@ -4072,6 +4079,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -656,10 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10004-10011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10012-10018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -891,6 +887,10 @@
   </si>
   <si>
     <t>10075-10077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004-10010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,10 +1294,10 @@
   <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1321,16 +1321,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="H3" s="4">
         <v>20001</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" s="4">
         <v>20003</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="4">
         <v>20004</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>7</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7" s="4">
         <v>20009</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>4</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>2</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="4">
         <v>20015</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>159</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>160</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13" s="4">
         <v>20020</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="4">
         <v>20019</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="4">
         <v>20021</v>
@@ -1722,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>161</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="10">
         <v>20039</v>
       </c>
       <c r="K18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1806,7 +1806,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H19" s="1">
         <v>20040</v>
@@ -1836,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H20" s="5">
         <v>20041</v>
@@ -1866,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H21" s="5">
         <v>20042</v>
@@ -1894,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -1921,7 +1921,7 @@
         <v>1001</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>99</v>
@@ -1950,7 +1950,7 @@
         <v>1002</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="6">
         <v>16</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H24" s="4">
         <v>20045</v>
@@ -1979,7 +1979,7 @@
         <v>1003</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>1004</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>1005</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1006</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>1007</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>1008</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>1010</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>1011</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" s="6">
         <v>1011</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>93</v>
@@ -2240,7 +2240,7 @@
         <v>1012</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C34" s="6">
         <v>16</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H34" s="4">
         <v>20046</v>
@@ -2269,7 +2269,7 @@
         <v>1013</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>1014</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>1015</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>1016</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>1017</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>1018</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>1019</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>1020</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6">
@@ -2629,7 +2629,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6">
@@ -2668,7 +2668,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6">
@@ -2681,7 +2681,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6">
@@ -2720,7 +2720,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6">
@@ -2746,7 +2746,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6">

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="75" windowWidth="13020" windowHeight="9390"/>
+    <workbookView xWindow="11445" yWindow="0" windowWidth="9030" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="distribute" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,99 @@
   <si>
     <t>10004-10010</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功-双防0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功-双防1</t>
+  </si>
+  <si>
+    <t>练功-双防2</t>
+  </si>
+  <si>
+    <t>练功-双防3</t>
+  </si>
+  <si>
+    <t>练功-双防4</t>
+  </si>
+  <si>
+    <t>练功-双防5</t>
+  </si>
+  <si>
+    <t>练功-双防6</t>
+  </si>
+  <si>
+    <t>练功-双防7</t>
+  </si>
+  <si>
+    <t>练功-双防8</t>
+  </si>
+  <si>
+    <t>练功-双防9</t>
+  </si>
+  <si>
+    <t>练功-物攻0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功-物攻1</t>
+  </si>
+  <si>
+    <t>练功-物攻2</t>
+  </si>
+  <si>
+    <t>练功-物攻3</t>
+  </si>
+  <si>
+    <t>练功-物攻4</t>
+  </si>
+  <si>
+    <t>练功-物攻5</t>
+  </si>
+  <si>
+    <t>练功-物攻6</t>
+  </si>
+  <si>
+    <t>练功-物攻7</t>
+  </si>
+  <si>
+    <t>练功-物攻8</t>
+  </si>
+  <si>
+    <t>练功-物攻9</t>
+  </si>
+  <si>
+    <t>练功-魔攻0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练功-魔攻1</t>
+  </si>
+  <si>
+    <t>练功-魔攻2</t>
+  </si>
+  <si>
+    <t>练功-魔攻3</t>
+  </si>
+  <si>
+    <t>练功-魔攻4</t>
+  </si>
+  <si>
+    <t>练功-魔攻5</t>
+  </si>
+  <si>
+    <t>练功-魔攻6</t>
+  </si>
+  <si>
+    <t>练功-魔攻7</t>
+  </si>
+  <si>
+    <t>练功-魔攻8</t>
+  </si>
+  <si>
+    <t>练功-魔攻9</t>
   </si>
 </sst>
 </file>
@@ -1291,13 +1384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1927,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2217,7 +2310,7 @@
         <v>1011</v>
       </c>
       <c r="D33" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2497,481 +2590,859 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
+      <c r="A43">
+        <v>2001</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>25</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>10137</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
+      <c r="A44">
+        <v>2002</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D44" s="6">
+        <v>50</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>10138</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B45" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="7"/>
+      <c r="A45">
+        <v>2003</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2001</v>
+      </c>
       <c r="D45" s="6">
         <v>100</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45">
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>10139</v>
+      </c>
+      <c r="H45" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B46" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="7"/>
+      <c r="A46">
+        <v>2004</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2001</v>
+      </c>
       <c r="D46" s="6">
-        <v>110</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46">
+        <v>200</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>10140</v>
+      </c>
+      <c r="H46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B47" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="7"/>
+      <c r="A47">
+        <v>2005</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2001</v>
+      </c>
       <c r="D47" s="6">
-        <v>120</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47">
+        <v>300</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>10141</v>
+      </c>
+      <c r="H47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="7"/>
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2001</v>
+      </c>
       <c r="D48" s="6">
-        <v>130</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>400</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>10142</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>2007</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2001</v>
+      </c>
       <c r="D49" s="6">
-        <v>140</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>10143</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2008</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2001</v>
+      </c>
       <c r="D50" s="6">
-        <v>150</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="7"/>
+        <v>700</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>10144</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>2009</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2001</v>
+      </c>
       <c r="D51" s="6">
-        <v>160</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="7"/>
+        <v>900</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>10145</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>2010</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2001</v>
+      </c>
       <c r="D52" s="6">
-        <v>170</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>1100</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>10146</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>2011</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2002</v>
+      </c>
       <c r="D53" s="6">
-        <v>180</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>10147</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>2012</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2002</v>
+      </c>
       <c r="D54" s="6">
-        <v>190</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>10148</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>2013</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2002</v>
+      </c>
       <c r="D55" s="6">
+        <v>100</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>10149</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>2014</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D56" s="6">
         <v>200</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6">
-        <v>210</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>10150</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2015</v>
+      </c>
       <c r="B57" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2002</v>
+      </c>
       <c r="D57" s="6">
-        <v>220</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>10151</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2016</v>
+      </c>
       <c r="B58" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2002</v>
+      </c>
       <c r="D58" s="6">
-        <v>230</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="7"/>
+        <v>400</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>10152</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2002</v>
+      </c>
       <c r="D59" s="6">
-        <v>240</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>10153</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2002</v>
+      </c>
       <c r="D60" s="6">
+        <v>700</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>10154</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D61" s="6">
+        <v>900</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>10155</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>10156</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D63" s="6">
+        <v>25</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>10157</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D64" s="6">
+        <v>50</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>10158</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>2023</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D65" s="6">
+        <v>100</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>10159</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>2024</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D66" s="6">
+        <v>200</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>10160</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6">
-        <v>260</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6">
-        <v>270</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6">
-        <v>280</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6">
-        <v>290</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6">
+      <c r="C67" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D67" s="6">
         <v>300</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6">
-        <v>310</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6">
-        <v>320</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>10161</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>2026</v>
+      </c>
       <c r="B68" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2003</v>
+      </c>
       <c r="D68" s="6">
-        <v>330</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="7"/>
+        <v>400</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>10162</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>2027</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2003</v>
+      </c>
       <c r="D69" s="6">
-        <v>340</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>10163</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>2028</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2003</v>
+      </c>
       <c r="D70" s="6">
-        <v>350</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="7"/>
+        <v>700</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>10164</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>2029</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2003</v>
+      </c>
       <c r="D71" s="6">
-        <v>360</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="7"/>
+        <v>900</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>10165</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>2030</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2003</v>
+      </c>
       <c r="D72" s="6">
-        <v>370</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6">
-        <v>380</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6">
-        <v>390</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6">
-        <v>400</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="6">
-        <v>410</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+        <v>1100</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>10166</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="6">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="6">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="6">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="6">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80">
@@ -2980,11 +3451,11 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="6">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81">
@@ -2993,11 +3464,11 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="6">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82">
@@ -3006,11 +3477,11 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="6">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83">
@@ -3019,11 +3490,11 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="6">
-        <v>490</v>
+        <v>170</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84">
@@ -3032,11 +3503,11 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85">
@@ -3045,11 +3516,11 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="6">
-        <v>510</v>
+        <v>190</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86">
@@ -3058,11 +3529,11 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="7" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="6">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87">
@@ -3071,11 +3542,11 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="6">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88">
@@ -3083,12 +3554,12 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="3"/>
+      <c r="B89" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="6"/>
       <c r="D89" s="6">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89">
@@ -3096,11 +3567,12 @@
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>23</v>
-      </c>
+      <c r="B90" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="6"/>
       <c r="D90" s="6">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90">
@@ -3108,11 +3580,12 @@
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
-        <v>24</v>
-      </c>
+      <c r="B91" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="7"/>
       <c r="D91" s="6">
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91">
@@ -3120,11 +3593,12 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>29</v>
-      </c>
+      <c r="B92" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="7"/>
       <c r="D92" s="6">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92">
@@ -3132,11 +3606,12 @@
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
+      <c r="B93" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="6"/>
       <c r="D93" s="6">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93">
@@ -3144,11 +3619,12 @@
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
-        <v>26</v>
-      </c>
+      <c r="B94" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="7"/>
       <c r="D94" s="6">
-        <v>590</v>
+        <v>270</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94">
@@ -3156,11 +3632,12 @@
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
+      <c r="B95" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="D95" s="6">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95">
@@ -3168,11 +3645,12 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
-        <v>28</v>
-      </c>
+      <c r="B96" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" s="7"/>
       <c r="D96" s="6">
-        <v>610</v>
+        <v>290</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96">
@@ -3180,11 +3658,12 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
-        <v>30</v>
-      </c>
+      <c r="B97" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" s="7"/>
       <c r="D97" s="6">
-        <v>620</v>
+        <v>300</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97">
@@ -3192,11 +3671,12 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
-        <v>31</v>
-      </c>
+      <c r="B98" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="7"/>
       <c r="D98" s="6">
-        <v>630</v>
+        <v>310</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98">
@@ -3204,11 +3684,12 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
-        <v>32</v>
-      </c>
+      <c r="B99" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="7"/>
       <c r="D99" s="6">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99">
@@ -3216,11 +3697,12 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
-        <v>33</v>
-      </c>
+      <c r="B100" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="6"/>
       <c r="D100" s="6">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100">
@@ -3228,11 +3710,12 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
-        <v>34</v>
-      </c>
+      <c r="B101" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="7"/>
       <c r="D101" s="6">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101">
@@ -3240,11 +3723,12 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
-        <v>35</v>
-      </c>
+      <c r="B102" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="7"/>
       <c r="D102" s="6">
-        <v>670</v>
+        <v>350</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102">
@@ -3252,11 +3736,12 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
-        <v>36</v>
-      </c>
+      <c r="B103" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="7"/>
       <c r="D103" s="6">
-        <v>680</v>
+        <v>360</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103">
@@ -3264,11 +3749,12 @@
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" t="s">
-        <v>37</v>
-      </c>
+      <c r="B104" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="7"/>
       <c r="D104" s="6">
-        <v>690</v>
+        <v>370</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104">
@@ -3276,11 +3762,12 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105" t="s">
-        <v>38</v>
-      </c>
+      <c r="B105" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="7"/>
       <c r="D105" s="6">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105">
@@ -3288,11 +3775,12 @@
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
-        <v>39</v>
-      </c>
+      <c r="B106" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="7"/>
       <c r="D106" s="6">
-        <v>710</v>
+        <v>390</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106">
@@ -3300,11 +3788,12 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
-        <v>40</v>
-      </c>
+      <c r="B107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="7"/>
       <c r="D107" s="6">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107">
@@ -3312,11 +3801,12 @@
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
-        <v>41</v>
-      </c>
+      <c r="B108" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="7"/>
       <c r="D108" s="6">
-        <v>730</v>
+        <v>410</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108">
@@ -3324,11 +3814,12 @@
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" t="s">
-        <v>136</v>
-      </c>
+      <c r="B109" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="7"/>
       <c r="D109" s="6">
-        <v>740</v>
+        <v>420</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109">
@@ -3336,11 +3827,12 @@
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110" t="s">
-        <v>135</v>
-      </c>
+      <c r="B110" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="7"/>
       <c r="D110" s="6">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110">
@@ -3348,11 +3840,12 @@
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
-        <v>67</v>
-      </c>
+      <c r="B111" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="7"/>
       <c r="D111" s="6">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111">
@@ -3360,11 +3853,12 @@
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
-        <v>68</v>
-      </c>
+      <c r="B112" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="7"/>
       <c r="D112" s="6">
-        <v>770</v>
+        <v>450</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112">
@@ -3372,11 +3866,12 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>69</v>
-      </c>
+      <c r="B113" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="7"/>
       <c r="D113" s="6">
-        <v>780</v>
+        <v>460</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113">
@@ -3384,11 +3879,12 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>137</v>
-      </c>
+      <c r="B114" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="7"/>
       <c r="D114" s="6">
-        <v>790</v>
+        <v>470</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114">
@@ -3396,8 +3892,12 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="7"/>
       <c r="D115" s="6">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115">
@@ -3405,8 +3905,12 @@
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="7"/>
       <c r="D116" s="6">
-        <v>810</v>
+        <v>490</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116">
@@ -3414,8 +3918,12 @@
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="7"/>
       <c r="D117" s="6">
-        <v>820</v>
+        <v>500</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117">
@@ -3423,8 +3931,12 @@
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="7"/>
       <c r="D118" s="6">
-        <v>830</v>
+        <v>510</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118">
@@ -3432,11 +3944,12 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
-        <v>82</v>
-      </c>
+      <c r="B119" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C119" s="7"/>
       <c r="D119" s="6">
-        <v>840</v>
+        <v>520</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119">
@@ -3444,11 +3957,12 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>83</v>
-      </c>
+      <c r="B120" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" s="7"/>
       <c r="D120" s="6">
-        <v>850</v>
+        <v>530</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120">
@@ -3456,11 +3970,12 @@
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
-        <v>84</v>
-      </c>
+      <c r="B121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="3"/>
       <c r="D121" s="6">
-        <v>860</v>
+        <v>540</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121">
@@ -3469,10 +3984,10 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D122" s="6">
-        <v>870</v>
+        <v>550</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122">
@@ -3481,10 +3996,10 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D123" s="6">
-        <v>880</v>
+        <v>560</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123">
@@ -3493,10 +4008,10 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D124" s="6">
-        <v>890</v>
+        <v>570</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124">
@@ -3505,10 +4020,10 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D125" s="6">
-        <v>900</v>
+        <v>580</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125">
@@ -3517,10 +4032,10 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D126" s="6">
-        <v>910</v>
+        <v>590</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126">
@@ -3529,10 +4044,10 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D127" s="6">
-        <v>920</v>
+        <v>600</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127">
@@ -3541,10 +4056,10 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D128" s="6">
-        <v>930</v>
+        <v>610</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128">
@@ -3553,10 +4068,10 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D129" s="6">
-        <v>940</v>
+        <v>620</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129">
@@ -3565,10 +4080,10 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D130" s="6">
-        <v>950</v>
+        <v>630</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130">
@@ -3577,10 +4092,10 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D131" s="6">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131">
@@ -3589,10 +4104,10 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="D132" s="6">
-        <v>970</v>
+        <v>650</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132">
@@ -3601,10 +4116,10 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D133" s="6">
-        <v>980</v>
+        <v>660</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133">
@@ -3613,10 +4128,10 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D134" s="6">
-        <v>990</v>
+        <v>670</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134">
@@ -3625,10 +4140,10 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D135" s="6">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135">
@@ -3637,10 +4152,10 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D136" s="6">
-        <v>1010</v>
+        <v>690</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136">
@@ -3649,10 +4164,10 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D137" s="6">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137">
@@ -3661,10 +4176,10 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D138" s="6">
-        <v>1030</v>
+        <v>710</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138">
@@ -3673,10 +4188,10 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D139" s="6">
-        <v>1040</v>
+        <v>720</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139">
@@ -3685,10 +4200,10 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D140" s="6">
-        <v>1050</v>
+        <v>730</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140">
@@ -3697,10 +4212,10 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D141" s="6">
-        <v>1060</v>
+        <v>740</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141">
@@ -3709,10 +4224,10 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D142" s="6">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142">
@@ -3721,10 +4236,10 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D143" s="6">
-        <v>1080</v>
+        <v>760</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143">
@@ -3733,10 +4248,10 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D144" s="6">
-        <v>1090</v>
+        <v>770</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144">
@@ -3745,10 +4260,10 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D145" s="6">
-        <v>1100</v>
+        <v>780</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145">
@@ -3757,10 +4272,10 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D146" s="6">
-        <v>1110</v>
+        <v>790</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146">
@@ -3768,11 +4283,8 @@
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B147" t="s">
-        <v>103</v>
-      </c>
       <c r="D147" s="6">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147">
@@ -3780,11 +4292,8 @@
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B148" t="s">
-        <v>104</v>
-      </c>
       <c r="D148" s="6">
-        <v>1130</v>
+        <v>810</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148">
@@ -3792,11 +4301,8 @@
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B149" t="s">
-        <v>54</v>
-      </c>
       <c r="D149" s="6">
-        <v>1140</v>
+        <v>820</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149">
@@ -3804,11 +4310,8 @@
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B150" t="s">
-        <v>55</v>
-      </c>
       <c r="D150" s="6">
-        <v>1150</v>
+        <v>830</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150">
@@ -3817,10 +4320,10 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D151" s="6">
-        <v>1160</v>
+        <v>840</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151">
@@ -3829,10 +4332,10 @@
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D152" s="6">
-        <v>1170</v>
+        <v>850</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152">
@@ -3841,10 +4344,10 @@
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D153" s="6">
-        <v>1180</v>
+        <v>860</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153">
@@ -3853,10 +4356,10 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D154" s="6">
-        <v>1190</v>
+        <v>870</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154">
@@ -3865,10 +4368,10 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D155" s="6">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155">
@@ -3877,10 +4380,10 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D156" s="6">
-        <v>1210</v>
+        <v>890</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156">
@@ -3889,10 +4392,10 @@
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D157" s="6">
-        <v>1220</v>
+        <v>900</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157">
@@ -3901,10 +4404,10 @@
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D158" s="6">
-        <v>1230</v>
+        <v>910</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158">
@@ -3913,10 +4416,10 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D159" s="6">
-        <v>1240</v>
+        <v>920</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159">
@@ -3925,10 +4428,10 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D160" s="6">
-        <v>1250</v>
+        <v>930</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160">
@@ -3937,10 +4440,10 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D161" s="6">
-        <v>1260</v>
+        <v>940</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161">
@@ -3949,10 +4452,10 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D162" s="6">
-        <v>1270</v>
+        <v>950</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162">
@@ -3961,10 +4464,10 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D163" s="6">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163">
@@ -3973,10 +4476,10 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D164" s="6">
-        <v>1290</v>
+        <v>970</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164">
@@ -3985,10 +4488,10 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D165" s="6">
-        <v>1300</v>
+        <v>980</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165">
@@ -3997,10 +4500,10 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D166" s="6">
-        <v>1310</v>
+        <v>990</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166">
@@ -4009,10 +4512,10 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D167" s="6">
-        <v>1320</v>
+        <v>1000</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167">
@@ -4021,10 +4524,10 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D168" s="6">
-        <v>1330</v>
+        <v>1010</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168">
@@ -4032,49 +4535,433 @@
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D169" s="6"/>
+      <c r="B169" t="s">
+        <v>62</v>
+      </c>
+      <c r="D169" s="6">
+        <v>1020</v>
+      </c>
       <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
+      <c r="F169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D170" s="6"/>
+      <c r="B170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" s="6">
+        <v>1030</v>
+      </c>
       <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
+      <c r="F170">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D171" s="6"/>
+      <c r="B171" t="s">
+        <v>46</v>
+      </c>
+      <c r="D171" s="6">
+        <v>1040</v>
+      </c>
       <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
+      <c r="F171">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D172" s="6"/>
+      <c r="B172" t="s">
+        <v>47</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1050</v>
+      </c>
       <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
+      <c r="F172">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D173" s="6"/>
+      <c r="B173" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" s="6">
+        <v>1060</v>
+      </c>
       <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
+      <c r="F173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D174" s="6"/>
+      <c r="B174" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174" s="6">
+        <v>1070</v>
+      </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
+      <c r="F174">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D175" s="6"/>
+      <c r="B175" t="s">
+        <v>50</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1080</v>
+      </c>
       <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
+      <c r="F175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D176" s="6"/>
+      <c r="B176" t="s">
+        <v>100</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1090</v>
+      </c>
       <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-    </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D177" s="6"/>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>101</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1100</v>
+      </c>
       <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B178" t="s">
+        <v>102</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1110</v>
+      </c>
+      <c r="E178" s="6"/>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B179" t="s">
+        <v>103</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1120</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B180" t="s">
+        <v>104</v>
+      </c>
+      <c r="D180" s="6">
+        <v>1130</v>
+      </c>
+      <c r="E180" s="6"/>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" s="6">
+        <v>1140</v>
+      </c>
+      <c r="E181" s="6"/>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B182" t="s">
+        <v>55</v>
+      </c>
+      <c r="D182" s="6">
+        <v>1150</v>
+      </c>
+      <c r="E182" s="6"/>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B183" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" s="6">
+        <v>1160</v>
+      </c>
+      <c r="E183" s="6"/>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="6">
+        <v>1170</v>
+      </c>
+      <c r="E184" s="6"/>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B185" t="s">
+        <v>58</v>
+      </c>
+      <c r="D185" s="6">
+        <v>1180</v>
+      </c>
+      <c r="E185" s="6"/>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" t="s">
+        <v>114</v>
+      </c>
+      <c r="D186" s="6">
+        <v>1190</v>
+      </c>
+      <c r="E186" s="6"/>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B187" t="s">
+        <v>80</v>
+      </c>
+      <c r="D187" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E187" s="6"/>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" t="s">
+        <v>112</v>
+      </c>
+      <c r="D188" s="6">
+        <v>1210</v>
+      </c>
+      <c r="E188" s="6"/>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B189" t="s">
+        <v>115</v>
+      </c>
+      <c r="D189" s="6">
+        <v>1220</v>
+      </c>
+      <c r="E189" s="6"/>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B190" t="s">
+        <v>116</v>
+      </c>
+      <c r="D190" s="6">
+        <v>1230</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" s="6">
+        <v>1240</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B192" t="s">
+        <v>107</v>
+      </c>
+      <c r="D192" s="6">
+        <v>1250</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B193" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193" s="6">
+        <v>1260</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B194" t="s">
+        <v>109</v>
+      </c>
+      <c r="D194" s="6">
+        <v>1270</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B195" t="s">
+        <v>111</v>
+      </c>
+      <c r="D195" s="6">
+        <v>1280</v>
+      </c>
+      <c r="E195" s="6"/>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" t="s">
+        <v>76</v>
+      </c>
+      <c r="D196" s="6">
+        <v>1290</v>
+      </c>
+      <c r="E196" s="6"/>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B197" t="s">
+        <v>77</v>
+      </c>
+      <c r="D197" s="6">
+        <v>1300</v>
+      </c>
+      <c r="E197" s="6"/>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" t="s">
+        <v>78</v>
+      </c>
+      <c r="D198" s="6">
+        <v>1310</v>
+      </c>
+      <c r="E198" s="6"/>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B199" t="s">
+        <v>79</v>
+      </c>
+      <c r="D199" s="6">
+        <v>1320</v>
+      </c>
+      <c r="E199" s="6"/>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B200" t="s">
+        <v>110</v>
+      </c>
+      <c r="D200" s="6">
+        <v>1330</v>
+      </c>
+      <c r="E200" s="6"/>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="0" windowWidth="9030" windowHeight="9390"/>
+    <workbookView xWindow="5490" yWindow="60" windowWidth="14565" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="distribute" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="252">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,22 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>龙翔圣地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,18 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洪荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毁灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绝世仙境</t>
   </si>
   <si>
@@ -323,18 +295,6 @@
     <t>★风云决杀</t>
   </si>
   <si>
-    <t>乱世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆天而行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不毛之地3</t>
   </si>
   <si>
@@ -359,10 +319,6 @@
     <t>★涅磐重生</t>
   </si>
   <si>
-    <t>神竟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逸伦峡谷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +336,6 @@
     <t>神穹</t>
   </si>
   <si>
-    <t>神穹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红尘穿梭</t>
   </si>
   <si>
@@ -399,10 +351,6 @@
     <t>★十世火仙④</t>
   </si>
   <si>
-    <t>十世火仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>死神叹息</t>
   </si>
   <si>
@@ -420,10 +368,6 @@
     <t>★死神叹息④</t>
   </si>
   <si>
-    <t>死神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佛洛狄德</t>
   </si>
   <si>
@@ -439,10 +383,6 @@
     <t>★珀塞福涅</t>
   </si>
   <si>
-    <t>天道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无暇神界</t>
   </si>
   <si>
@@ -459,10 +399,6 @@
     <t>★灭世破空</t>
   </si>
   <si>
-    <t>问天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幻影之城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,10 +424,6 @@
     <t>无视</t>
   </si>
   <si>
-    <t>无视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>诛仙</t>
   </si>
   <si>
@@ -501,10 +433,6 @@
     <t>★神穹无视</t>
   </si>
   <si>
-    <t>无双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太湖幻境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,10 +452,6 @@
     <t>斩尽天下</t>
   </si>
   <si>
-    <t>斩尽天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斩尽天下①</t>
   </si>
   <si>
@@ -556,10 +480,6 @@
     <t>★拉克勒斯</t>
   </si>
   <si>
-    <t>重生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不毛之地2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,14 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诛神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诛仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厉魂古阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -850,10 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宗师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪域国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,6 +893,82 @@
   </si>
   <si>
     <t>练功-魔攻9</t>
+  </si>
+  <si>
+    <t>界林矿洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬魂炼域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泯灭的丘陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地之裂痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵古道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎虚空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众神祭坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望天之谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀月台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天庭古迷阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭血囚笼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001-11008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11009-11018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11019-11026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11027-11032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11039-11048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11033-11038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21002-21003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21006-21007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1384,13 +1368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K209"/>
+  <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1414,16 +1398,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>13</v>
@@ -1437,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <f>A2</f>
@@ -1467,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">A3</f>
+        <f t="shared" ref="C3:C33" si="0">A3</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -1480,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="H3" s="4">
         <v>20001</v>
@@ -1507,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H4" s="4">
         <v>20003</v>
@@ -1534,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H5" s="4">
         <v>20004</v>
@@ -1561,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>7</v>
@@ -1588,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H7" s="4">
         <v>20009</v>
@@ -1615,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>4</v>
@@ -1642,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>2</v>
@@ -1669,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H10" s="4">
         <v>20015</v>
@@ -1696,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1723,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1750,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="H13" s="4">
         <v>20020</v>
@@ -1777,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4">
         <v>20019</v>
@@ -1804,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H15" s="4">
         <v>20021</v>
@@ -1815,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1831,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1858,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1869,7 +1853,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1885,13 +1869,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="H18" s="10">
         <v>20039</v>
-      </c>
-      <c r="K18" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1899,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1915,21 +1896,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="H19" s="1">
         <v>20040</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1945,21 +1924,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="H20" s="5">
         <v>20041</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1975,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="H21" s="5">
         <v>20042</v>
@@ -1987,9 +1964,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D22" s="6">
@@ -2002,396 +1980,381 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>1001</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="D23" s="6">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" s="5">
+        <v>21001</v>
+      </c>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>1002</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="6">
-        <v>16</v>
+        <v>234</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="D24" s="6">
-        <v>50</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H24" s="4">
-        <v>20045</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>1003</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D25" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="5">
+        <v>21004</v>
+      </c>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>1004</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D26" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="5">
+        <v>21005</v>
+      </c>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1005</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="D27" s="6">
         <v>9999</v>
       </c>
-      <c r="E27">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1006</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="D28" s="6">
         <v>9999</v>
       </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="5">
+        <v>21008</v>
+      </c>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1007</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="D29" s="6">
         <v>9999</v>
       </c>
-      <c r="E29">
-        <v>22</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>1008</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="D30" s="6">
         <v>9999</v>
       </c>
-      <c r="E30">
-        <v>29</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1009</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D31" s="6">
         <v>9999</v>
       </c>
-      <c r="E31">
-        <v>37</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1010</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="D32" s="6">
         <v>9999</v>
       </c>
-      <c r="E32">
-        <v>46</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>1011</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1011</v>
+        <v>243</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="D33" s="6">
-        <v>25</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>9999</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C34" s="6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D34" s="6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="4">
-        <v>20046</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C35" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D35" s="6">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="5">
-        <v>0</v>
+      <c r="G35" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>52</v>
-      </c>
+        <v>20045</v>
+      </c>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -2400,7 +2363,7 @@
         <v>9999</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2411,16 +2374,14 @@
       <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="K36" t="s">
-        <v>105</v>
-      </c>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -2429,7 +2390,7 @@
         <v>9999</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2440,16 +2401,14 @@
       <c r="H37" s="4">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
-        <v>65</v>
-      </c>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2458,7 +2417,7 @@
         <v>9999</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2469,16 +2428,14 @@
       <c r="H38" s="4">
         <v>0</v>
       </c>
-      <c r="K38" t="s">
-        <v>117</v>
-      </c>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2487,7 +2444,7 @@
         <v>9999</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2498,16 +2455,14 @@
       <c r="H39" s="4">
         <v>0</v>
       </c>
-      <c r="K39" t="s">
-        <v>113</v>
-      </c>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -2516,7 +2471,7 @@
         <v>9999</v>
       </c>
       <c r="E40">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2527,16 +2482,14 @@
       <c r="H40" s="4">
         <v>0</v>
       </c>
-      <c r="K40" t="s">
-        <v>81</v>
-      </c>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2545,7 +2498,7 @@
         <v>9999</v>
       </c>
       <c r="E41">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2556,16 +2509,14 @@
       <c r="H41" s="4">
         <v>0</v>
       </c>
-      <c r="K41" t="s">
-        <v>153</v>
-      </c>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -2574,7 +2525,7 @@
         <v>9999</v>
       </c>
       <c r="E42">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2585,109 +2536,110 @@
       <c r="H42" s="4">
         <v>0</v>
       </c>
-      <c r="K42" t="s">
-        <v>152</v>
-      </c>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>2001</v>
+        <v>1010</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="C43" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>25</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E43">
+        <v>46</v>
+      </c>
+      <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>10137</v>
+        <v>0</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
       </c>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>2002</v>
+        <v>1011</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C44" s="6">
-        <v>2001</v>
+        <v>1011</v>
       </c>
       <c r="D44" s="6">
-        <v>50</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>10138</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>2003</v>
+        <v>1012</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C45" s="6">
-        <v>2001</v>
+        <v>16</v>
       </c>
       <c r="D45" s="6">
-        <v>100</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>10139</v>
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="H45" s="4">
-        <v>0</v>
-      </c>
+        <v>20046</v>
+      </c>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>2004</v>
+        <v>1013</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C46" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D46" s="6">
-        <v>200</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>10140</v>
+        <v>0</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -2695,25 +2647,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>2005</v>
+        <v>1014</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C47" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
-        <v>300</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="5">
-        <v>10141</v>
+        <v>0</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
@@ -2721,25 +2673,25 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>2006</v>
+        <v>1015</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C48" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
-        <v>400</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" s="5">
-        <v>10142</v>
+        <v>0</v>
       </c>
       <c r="H48" s="4">
         <v>0</v>
@@ -2747,25 +2699,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>2007</v>
+        <v>1016</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="C49" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
-        <v>500</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="5">
-        <v>10143</v>
+        <v>0</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
@@ -2773,25 +2725,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>2008</v>
+        <v>1017</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="C50" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
-        <v>700</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="5">
-        <v>10144</v>
+        <v>0</v>
       </c>
       <c r="H50" s="4">
         <v>0</v>
@@ -2799,25 +2751,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>2009</v>
+        <v>1018</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C51" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D51" s="6">
-        <v>900</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E51">
+        <v>29</v>
+      </c>
+      <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" s="5">
-        <v>10145</v>
+        <v>0</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
@@ -2825,25 +2777,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>2010</v>
+        <v>1019</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="C52" s="6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D52" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E52">
+        <v>37</v>
+      </c>
+      <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" s="5">
-        <v>10146</v>
+        <v>0</v>
       </c>
       <c r="H52" s="4">
         <v>0</v>
@@ -2851,25 +2803,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>2011</v>
+        <v>1020</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="C53" s="6">
-        <v>2002</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>25</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
+        <v>9999</v>
+      </c>
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" s="5">
-        <v>10147</v>
+        <v>0</v>
       </c>
       <c r="H53" s="4">
         <v>0</v>
@@ -2877,16 +2829,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C54" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D54" s="6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
@@ -2895,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="5">
-        <v>10148</v>
+        <v>10137</v>
       </c>
       <c r="H54" s="4">
         <v>0</v>
@@ -2903,16 +2855,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C55" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D55" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
@@ -2921,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="5">
-        <v>10149</v>
+        <v>10138</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
@@ -2929,16 +2881,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="C56" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D56" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
@@ -2947,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="5">
-        <v>10150</v>
+        <v>10139</v>
       </c>
       <c r="H56" s="4">
         <v>0</v>
@@ -2955,16 +2907,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="C57" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D57" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
@@ -2973,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <v>10151</v>
+        <v>10140</v>
       </c>
       <c r="H57" s="4">
         <v>0</v>
@@ -2981,16 +2933,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C58" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D58" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
@@ -2999,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5">
-        <v>10152</v>
+        <v>10141</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -3007,16 +2959,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C59" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D59" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
@@ -3025,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="5">
-        <v>10153</v>
+        <v>10142</v>
       </c>
       <c r="H59" s="4">
         <v>0</v>
@@ -3033,16 +2985,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C60" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D60" s="6">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
@@ -3051,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="5">
-        <v>10154</v>
+        <v>10143</v>
       </c>
       <c r="H60" s="4">
         <v>0</v>
@@ -3059,16 +3011,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C61" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D61" s="6">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
@@ -3077,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="5">
-        <v>10155</v>
+        <v>10144</v>
       </c>
       <c r="H61" s="4">
         <v>0</v>
@@ -3085,16 +3037,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C62" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D62" s="6">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
@@ -3103,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="5">
-        <v>10156</v>
+        <v>10145</v>
       </c>
       <c r="H62" s="4">
         <v>0</v>
@@ -3111,16 +3063,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C63" s="6">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D63" s="6">
-        <v>25</v>
+        <v>1100</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
@@ -3129,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="5">
-        <v>10157</v>
+        <v>10146</v>
       </c>
       <c r="H63" s="4">
         <v>0</v>
@@ -3137,16 +3089,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C64" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D64" s="6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
@@ -3155,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="5">
-        <v>10158</v>
+        <v>10147</v>
       </c>
       <c r="H64" s="4">
         <v>0</v>
@@ -3163,16 +3115,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C65" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D65" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
@@ -3181,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="5">
-        <v>10159</v>
+        <v>10148</v>
       </c>
       <c r="H65" s="4">
         <v>0</v>
@@ -3189,16 +3141,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C66" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D66" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
@@ -3207,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="5">
-        <v>10160</v>
+        <v>10149</v>
       </c>
       <c r="H66" s="4">
         <v>0</v>
@@ -3215,16 +3167,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C67" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D67" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
@@ -3233,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="5">
-        <v>10161</v>
+        <v>10150</v>
       </c>
       <c r="H67" s="4">
         <v>0</v>
@@ -3241,16 +3193,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C68" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D68" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
@@ -3259,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="5">
-        <v>10162</v>
+        <v>10151</v>
       </c>
       <c r="H68" s="4">
         <v>0</v>
@@ -3267,16 +3219,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>2027</v>
+        <v>2016</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="C69" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D69" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
@@ -3285,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="5">
-        <v>10163</v>
+        <v>10152</v>
       </c>
       <c r="H69" s="4">
         <v>0</v>
@@ -3293,16 +3245,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C70" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D70" s="6">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
@@ -3311,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="5">
-        <v>10164</v>
+        <v>10153</v>
       </c>
       <c r="H70" s="4">
         <v>0</v>
@@ -3319,16 +3271,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>2029</v>
+        <v>2018</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C71" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D71" s="6">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
@@ -3337,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="5">
-        <v>10165</v>
+        <v>10154</v>
       </c>
       <c r="H71" s="4">
         <v>0</v>
@@ -3345,312 +3297,455 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72">
+        <v>2019</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D72" s="6">
+        <v>900</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>10155</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2002</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>10156</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D74" s="6">
+        <v>25</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>10157</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D75" s="6">
+        <v>50</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>10158</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>2023</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D76" s="6">
+        <v>100</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>10159</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>2024</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D77" s="6">
+        <v>200</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>10160</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D78" s="6">
+        <v>300</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>10161</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>2026</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D79" s="6">
+        <v>400</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
+        <v>10162</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>2027</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D80" s="6">
+        <v>500</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <v>10163</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>2028</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D81" s="6">
+        <v>700</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <v>10164</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>2029</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D82" s="6">
+        <v>900</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <v>10165</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>2030</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C72" s="6">
+      <c r="B83" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="6">
         <v>2003</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D83" s="6">
         <v>1100</v>
       </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
         <v>10166</v>
       </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B77" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="6">
-        <v>100</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B78" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6">
-        <v>110</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B79" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6">
-        <v>120</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6">
-        <v>130</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="6">
-        <v>140</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6">
-        <v>150</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6">
-        <v>160</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="6">
-        <v>170</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="6">
-        <v>180</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="6">
-        <v>190</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B87" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="6">
-        <v>200</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="6">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" s="6"/>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B89" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="7"/>
       <c r="D89" s="6">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="6"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B90" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="7"/>
       <c r="D90" s="6">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="6">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B92" s="7" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="6">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="6"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B93" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="7"/>
       <c r="D93" s="6">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="6">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B95" s="7" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="6">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B96" s="7" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="6">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96">
@@ -3659,11 +3754,11 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="6">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97">
@@ -3672,11 +3767,11 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="6">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98">
@@ -3685,11 +3780,11 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="6">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99">
@@ -3698,11 +3793,11 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100">
@@ -3710,12 +3805,12 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="7"/>
+      <c r="B101" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="6"/>
       <c r="D101" s="6">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101">
@@ -3724,11 +3819,11 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="6">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102">
@@ -3737,11 +3832,11 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="6">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103">
@@ -3749,12 +3844,12 @@
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C104" s="7"/>
+      <c r="B104" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="6"/>
       <c r="D104" s="6">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104">
@@ -3763,11 +3858,11 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="6">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105">
@@ -3776,11 +3871,11 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="6">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106">
@@ -3789,11 +3884,11 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="7" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="6">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107">
@@ -3802,11 +3897,11 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="6">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108">
@@ -3815,11 +3910,11 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B109" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="6">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109">
@@ -3828,11 +3923,11 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B110" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="6">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110">
@@ -3840,12 +3935,12 @@
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111" s="7"/>
+      <c r="B111" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="6">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111">
@@ -3854,11 +3949,11 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B112" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="6">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112">
@@ -3867,11 +3962,11 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="7" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="6">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113">
@@ -3880,11 +3975,11 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="7" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="6">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114">
@@ -3893,11 +3988,11 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="7" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="6">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115">
@@ -3906,11 +4001,11 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="6">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116">
@@ -3919,11 +4014,11 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="7" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="6">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117">
@@ -3932,11 +4027,11 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="6">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118">
@@ -3945,11 +4040,11 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="6">
-        <v>520</v>
+        <v>410</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119">
@@ -3958,11 +4053,11 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="6">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120">
@@ -3970,12 +4065,12 @@
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B121" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="3"/>
+      <c r="B121" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="7"/>
       <c r="D121" s="6">
-        <v>540</v>
+        <v>430</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121">
@@ -3983,11 +4078,12 @@
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
-        <v>23</v>
-      </c>
+      <c r="B122" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="7"/>
       <c r="D122" s="6">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122">
@@ -3995,11 +4091,12 @@
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B123" t="s">
-        <v>24</v>
-      </c>
+      <c r="B123" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="7"/>
       <c r="D123" s="6">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123">
@@ -4007,11 +4104,12 @@
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
-        <v>29</v>
-      </c>
+      <c r="B124" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="7"/>
       <c r="D124" s="6">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124">
@@ -4019,11 +4117,12 @@
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
-        <v>25</v>
-      </c>
+      <c r="B125" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="7"/>
       <c r="D125" s="6">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125">
@@ -4031,11 +4130,12 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B126" t="s">
-        <v>26</v>
-      </c>
+      <c r="B126" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="7"/>
       <c r="D126" s="6">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126">
@@ -4043,11 +4143,12 @@
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
-        <v>27</v>
-      </c>
+      <c r="B127" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="7"/>
       <c r="D127" s="6">
-        <v>600</v>
+        <v>490</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127">
@@ -4055,11 +4156,12 @@
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
-        <v>28</v>
-      </c>
+      <c r="B128" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="6">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128">
@@ -4067,11 +4169,12 @@
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
-        <v>30</v>
-      </c>
+      <c r="B129" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="6">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129">
@@ -4079,11 +4182,12 @@
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
-        <v>31</v>
-      </c>
+      <c r="B130" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="7"/>
       <c r="D130" s="6">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130">
@@ -4091,11 +4195,12 @@
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" t="s">
-        <v>32</v>
-      </c>
+      <c r="B131" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" s="7"/>
       <c r="D131" s="6">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131">
@@ -4103,11 +4208,12 @@
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" t="s">
-        <v>33</v>
-      </c>
+      <c r="B132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="3"/>
       <c r="D132" s="6">
-        <v>650</v>
+        <v>540</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132">
@@ -4116,10 +4222,10 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D133" s="6">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133">
@@ -4128,10 +4234,10 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D134" s="6">
-        <v>670</v>
+        <v>560</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134">
@@ -4140,10 +4246,10 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D135" s="6">
-        <v>680</v>
+        <v>570</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135">
@@ -4152,10 +4258,10 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D136" s="6">
-        <v>690</v>
+        <v>580</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136">
@@ -4164,10 +4270,10 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D137" s="6">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137">
@@ -4176,10 +4282,10 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D138" s="6">
-        <v>710</v>
+        <v>600</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138">
@@ -4188,10 +4294,10 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D139" s="6">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139">
@@ -4200,10 +4306,10 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D140" s="6">
-        <v>730</v>
+        <v>620</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140">
@@ -4212,10 +4318,10 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="D141" s="6">
-        <v>740</v>
+        <v>630</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141">
@@ -4224,10 +4330,10 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="D142" s="6">
-        <v>750</v>
+        <v>640</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142">
@@ -4236,10 +4342,10 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D143" s="6">
-        <v>760</v>
+        <v>650</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143">
@@ -4248,10 +4354,10 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D144" s="6">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144">
@@ -4260,10 +4366,10 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D145" s="6">
-        <v>780</v>
+        <v>670</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145">
@@ -4272,10 +4378,10 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="D146" s="6">
-        <v>790</v>
+        <v>680</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146">
@@ -4283,8 +4389,11 @@
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>37</v>
+      </c>
       <c r="D147" s="6">
-        <v>800</v>
+        <v>690</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147">
@@ -4292,8 +4401,11 @@
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
       <c r="D148" s="6">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148">
@@ -4301,8 +4413,11 @@
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>39</v>
+      </c>
       <c r="D149" s="6">
-        <v>820</v>
+        <v>710</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149">
@@ -4310,8 +4425,11 @@
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
+        <v>40</v>
+      </c>
       <c r="D150" s="6">
-        <v>830</v>
+        <v>720</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150">
@@ -4320,10 +4438,10 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D151" s="6">
-        <v>840</v>
+        <v>730</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151">
@@ -4332,10 +4450,10 @@
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D152" s="6">
-        <v>850</v>
+        <v>740</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152">
@@ -4344,10 +4462,10 @@
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D153" s="6">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153">
@@ -4356,10 +4474,10 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D154" s="6">
-        <v>870</v>
+        <v>760</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154">
@@ -4368,10 +4486,10 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D155" s="6">
-        <v>880</v>
+        <v>770</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155">
@@ -4380,10 +4498,10 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="D156" s="6">
-        <v>890</v>
+        <v>780</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156">
@@ -4392,10 +4510,10 @@
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D157" s="6">
-        <v>900</v>
+        <v>790</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157">
@@ -4403,11 +4521,8 @@
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B158" t="s">
-        <v>126</v>
-      </c>
       <c r="D158" s="6">
-        <v>910</v>
+        <v>800</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158">
@@ -4415,11 +4530,8 @@
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B159" t="s">
-        <v>127</v>
-      </c>
       <c r="D159" s="6">
-        <v>920</v>
+        <v>810</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159">
@@ -4427,11 +4539,8 @@
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B160" t="s">
-        <v>128</v>
-      </c>
       <c r="D160" s="6">
-        <v>930</v>
+        <v>820</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160">
@@ -4439,11 +4548,8 @@
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B161" t="s">
-        <v>88</v>
-      </c>
       <c r="D161" s="6">
-        <v>940</v>
+        <v>830</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161">
@@ -4452,10 +4558,10 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D162" s="6">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162">
@@ -4464,10 +4570,10 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D163" s="6">
-        <v>960</v>
+        <v>850</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163">
@@ -4476,10 +4582,10 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D164" s="6">
-        <v>970</v>
+        <v>860</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164">
@@ -4488,10 +4594,10 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D165" s="6">
-        <v>980</v>
+        <v>870</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165">
@@ -4500,10 +4606,10 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D166" s="6">
-        <v>990</v>
+        <v>880</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166">
@@ -4512,10 +4618,10 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D167" s="6">
-        <v>1000</v>
+        <v>890</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167">
@@ -4524,10 +4630,10 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D168" s="6">
-        <v>1010</v>
+        <v>900</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168">
@@ -4536,10 +4642,10 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D169" s="6">
-        <v>1020</v>
+        <v>910</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169">
@@ -4548,10 +4654,10 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="D170" s="6">
-        <v>1030</v>
+        <v>920</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170">
@@ -4560,10 +4666,10 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D171" s="6">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171">
@@ -4572,10 +4678,10 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D172" s="6">
-        <v>1050</v>
+        <v>940</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172">
@@ -4584,10 +4690,10 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D173" s="6">
-        <v>1060</v>
+        <v>950</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173">
@@ -4596,10 +4702,10 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D174" s="6">
-        <v>1070</v>
+        <v>960</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174">
@@ -4608,10 +4714,10 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D175" s="6">
-        <v>1080</v>
+        <v>970</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175">
@@ -4620,10 +4726,10 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D176" s="6">
-        <v>1090</v>
+        <v>980</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176">
@@ -4632,10 +4738,10 @@
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D177" s="6">
-        <v>1100</v>
+        <v>990</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177">
@@ -4644,10 +4750,10 @@
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D178" s="6">
-        <v>1110</v>
+        <v>1000</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178">
@@ -4656,10 +4762,10 @@
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D179" s="6">
-        <v>1120</v>
+        <v>1010</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179">
@@ -4668,10 +4774,10 @@
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D180" s="6">
-        <v>1130</v>
+        <v>1020</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180">
@@ -4680,10 +4786,10 @@
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D181" s="6">
-        <v>1140</v>
+        <v>1030</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181">
@@ -4692,10 +4798,10 @@
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D182" s="6">
-        <v>1150</v>
+        <v>1040</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182">
@@ -4704,10 +4810,10 @@
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D183" s="6">
-        <v>1160</v>
+        <v>1050</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183">
@@ -4716,10 +4822,10 @@
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D184" s="6">
-        <v>1170</v>
+        <v>1060</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184">
@@ -4728,10 +4834,10 @@
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D185" s="6">
-        <v>1180</v>
+        <v>1070</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185">
@@ -4740,10 +4846,10 @@
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D186" s="6">
-        <v>1190</v>
+        <v>1080</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186">
@@ -4752,10 +4858,10 @@
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D187" s="6">
-        <v>1200</v>
+        <v>1090</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187">
@@ -4764,10 +4870,10 @@
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D188" s="6">
-        <v>1210</v>
+        <v>1100</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188">
@@ -4776,10 +4882,10 @@
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D189" s="6">
-        <v>1220</v>
+        <v>1110</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189">
@@ -4788,10 +4894,10 @@
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D190" s="6">
-        <v>1230</v>
+        <v>1120</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190">
@@ -4800,10 +4906,10 @@
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D191" s="6">
-        <v>1240</v>
+        <v>1130</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191">
@@ -4812,10 +4918,10 @@
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="D192" s="6">
-        <v>1250</v>
+        <v>1140</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192">
@@ -4824,10 +4930,10 @@
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="D193" s="6">
-        <v>1260</v>
+        <v>1150</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193">
@@ -4836,10 +4942,10 @@
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D194" s="6">
-        <v>1270</v>
+        <v>1160</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194">
@@ -4848,10 +4954,10 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D195" s="6">
-        <v>1280</v>
+        <v>1170</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195">
@@ -4860,10 +4966,10 @@
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D196" s="6">
-        <v>1290</v>
+        <v>1180</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196">
@@ -4872,10 +4978,10 @@
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D197" s="6">
-        <v>1300</v>
+        <v>1190</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197">
@@ -4884,10 +4990,10 @@
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D198" s="6">
-        <v>1310</v>
+        <v>1200</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198">
@@ -4896,10 +5002,10 @@
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D199" s="6">
-        <v>1320</v>
+        <v>1210</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199">
@@ -4908,10 +5014,10 @@
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D200" s="6">
-        <v>1330</v>
+        <v>1220</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200">
@@ -4919,49 +5025,181 @@
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D201" s="6"/>
+      <c r="B201" t="s">
+        <v>99</v>
+      </c>
+      <c r="D201" s="6">
+        <v>1230</v>
+      </c>
       <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
+      <c r="F201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D202" s="6"/>
+      <c r="B202" t="s">
+        <v>90</v>
+      </c>
+      <c r="D202" s="6">
+        <v>1240</v>
+      </c>
       <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
+      <c r="F202">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D203" s="6"/>
+      <c r="B203" t="s">
+        <v>91</v>
+      </c>
+      <c r="D203" s="6">
+        <v>1250</v>
+      </c>
       <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
+      <c r="F203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D204" s="6"/>
+      <c r="B204" t="s">
+        <v>92</v>
+      </c>
+      <c r="D204" s="6">
+        <v>1260</v>
+      </c>
       <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
+      <c r="F204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D205" s="6"/>
+      <c r="B205" t="s">
+        <v>93</v>
+      </c>
+      <c r="D205" s="6">
+        <v>1270</v>
+      </c>
       <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
+      <c r="F205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D206" s="6"/>
+      <c r="B206" t="s">
+        <v>95</v>
+      </c>
+      <c r="D206" s="6">
+        <v>1280</v>
+      </c>
       <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
+      <c r="F206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D207" s="6"/>
+      <c r="B207" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" s="6">
+        <v>1290</v>
+      </c>
       <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
+      <c r="F207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D208" s="6"/>
+      <c r="B208" t="s">
+        <v>66</v>
+      </c>
+      <c r="D208" s="6">
+        <v>1300</v>
+      </c>
       <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-    </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D209" s="6"/>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B209" t="s">
+        <v>67</v>
+      </c>
+      <c r="D209" s="6">
+        <v>1310</v>
+      </c>
       <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" s="6">
+        <v>1320</v>
+      </c>
+      <c r="E210" s="6"/>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B211" t="s">
+        <v>94</v>
+      </c>
+      <c r="D211" s="6">
+        <v>1330</v>
+      </c>
+      <c r="E211" s="6"/>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,6 +968,14 @@
   </si>
   <si>
     <t>21006-21007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10115-10117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10115-10117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,10 +1379,10 @@
   <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2357,10 +2365,10 @@
         <v>167</v>
       </c>
       <c r="C36" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D36" s="6">
-        <v>9999</v>
+        <v>99</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2368,11 +2376,11 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="5">
-        <v>0</v>
+      <c r="G36" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>20047</v>
       </c>
       <c r="K36" s="6"/>
     </row>
@@ -2387,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="6">
-        <v>9999</v>
+        <v>199</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -2627,10 +2635,10 @@
         <v>175</v>
       </c>
       <c r="C46" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D46" s="6">
-        <v>9999</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -2638,11 +2646,11 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
+      <c r="G46" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="H46" s="4">
-        <v>0</v>
+        <v>20048</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -2656,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="6">
-        <v>9999</v>
+        <v>199</v>
       </c>
       <c r="E47">
         <v>7</v>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -1379,10 +1379,10 @@
   <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K76" sqref="K76"/>
+      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6">
-        <v>9999</v>
+        <v>160</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6">
-        <v>9999</v>
+        <v>175</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="60" windowWidth="14565" windowHeight="9390"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="14565" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="distribute" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,22 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10010-10011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-20002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20007-20008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10033-10034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王者禁地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,68 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物免2</t>
-  </si>
-  <si>
-    <t>物免3</t>
-  </si>
-  <si>
-    <t>物免4</t>
-  </si>
-  <si>
-    <t>物免5</t>
-  </si>
-  <si>
-    <t>物免6</t>
-  </si>
-  <si>
-    <t>物免7</t>
-  </si>
-  <si>
-    <t>物免8</t>
-  </si>
-  <si>
-    <t>物免9</t>
-  </si>
-  <si>
-    <t>魔免2</t>
-  </si>
-  <si>
-    <t>魔免3</t>
-  </si>
-  <si>
-    <t>魔免4</t>
-  </si>
-  <si>
-    <t>魔免5</t>
-  </si>
-  <si>
-    <t>魔免6</t>
-  </si>
-  <si>
-    <t>魔免7</t>
-  </si>
-  <si>
-    <t>魔免8</t>
-  </si>
-  <si>
-    <t>魔免9</t>
-  </si>
-  <si>
-    <t>物免0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物免1</t>
-  </si>
-  <si>
-    <t>魔免0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔免1</t>
-  </si>
-  <si>
     <t>狐月山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,107 +716,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10075-10077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10004-10010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>练功-双防0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练功-双防1</t>
-  </si>
-  <si>
-    <t>练功-双防2</t>
-  </si>
-  <si>
-    <t>练功-双防3</t>
-  </si>
-  <si>
-    <t>练功-双防4</t>
-  </si>
-  <si>
-    <t>练功-双防5</t>
-  </si>
-  <si>
-    <t>练功-双防6</t>
-  </si>
-  <si>
-    <t>练功-双防7</t>
-  </si>
-  <si>
-    <t>练功-双防8</t>
-  </si>
-  <si>
-    <t>练功-双防9</t>
-  </si>
-  <si>
-    <t>练功-物攻0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练功-物攻1</t>
-  </si>
-  <si>
-    <t>练功-物攻2</t>
-  </si>
-  <si>
-    <t>练功-物攻3</t>
-  </si>
-  <si>
-    <t>练功-物攻4</t>
-  </si>
-  <si>
-    <t>练功-物攻5</t>
-  </si>
-  <si>
-    <t>练功-物攻6</t>
-  </si>
-  <si>
-    <t>练功-物攻7</t>
-  </si>
-  <si>
-    <t>练功-物攻8</t>
-  </si>
-  <si>
-    <t>练功-物攻9</t>
-  </si>
-  <si>
-    <t>练功-魔攻0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练功-魔攻1</t>
-  </si>
-  <si>
-    <t>练功-魔攻2</t>
-  </si>
-  <si>
-    <t>练功-魔攻3</t>
-  </si>
-  <si>
-    <t>练功-魔攻4</t>
-  </si>
-  <si>
-    <t>练功-魔攻5</t>
-  </si>
-  <si>
-    <t>练功-魔攻6</t>
-  </si>
-  <si>
-    <t>练功-魔攻7</t>
-  </si>
-  <si>
-    <t>练功-魔攻8</t>
-  </si>
-  <si>
-    <t>练功-魔攻9</t>
-  </si>
-  <si>
     <t>界林矿洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,11 +796,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10115-10117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10115-10117</t>
+    <t>12001-12008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12009-12016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12017-12022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12023-12030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12031-12038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21009-21010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21011-21015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,13 +1221,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1406,16 +1251,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>13</v>
@@ -1472,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="H3" s="4">
         <v>20001</v>
@@ -1807,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1823,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1877,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="H18" s="10">
         <v>20039</v>
@@ -1888,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1904,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="H19" s="1">
         <v>20040</v>
@@ -1916,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1932,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="H20" s="5">
         <v>20041</v>
@@ -1944,7 +1789,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1960,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="H21" s="5">
         <v>20042</v>
@@ -1972,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1988,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -2000,7 +1845,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2016,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="H23" s="5">
         <v>21001</v>
@@ -2028,7 +1873,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2044,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -2056,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2072,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="H25" s="5">
         <v>21004</v>
@@ -2084,7 +1929,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2100,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="H26" s="5">
         <v>21005</v>
@@ -2112,7 +1957,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -2128,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -2140,7 +1985,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -2156,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="H28" s="5">
         <v>21008</v>
@@ -2168,14 +2013,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D29" s="6">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2183,11 +2028,11 @@
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
+      <c r="G29" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -2196,14 +2041,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D30" s="6">
-        <v>9999</v>
+        <v>215</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -2211,11 +2056,11 @@
       <c r="F30" s="6">
         <v>0</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
+      <c r="G30" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -2224,14 +2069,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D31" s="6">
-        <v>9999</v>
+        <v>230</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
@@ -2239,11 +2084,11 @@
       <c r="F31" s="6">
         <v>0</v>
       </c>
-      <c r="G31" s="9">
-        <v>0</v>
+      <c r="G31" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="H31" s="5">
-        <v>0</v>
+        <v>21016</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -2252,14 +2097,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D32" s="6">
-        <v>9999</v>
+        <v>245</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
@@ -2267,11 +2112,11 @@
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="9">
-        <v>0</v>
+      <c r="G32" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="H32" s="5">
-        <v>0</v>
+        <v>21017</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2280,14 +2125,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D33" s="6">
-        <v>9999</v>
+        <v>260</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
@@ -2295,1465 +2140,789 @@
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="9">
-        <v>0</v>
+      <c r="G33" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="H33" s="5">
-        <v>0</v>
+        <v>21018</v>
       </c>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>1001</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" s="6">
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6">
+        <v>100</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6">
+        <v>110</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6">
+        <v>120</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6">
+        <v>130</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6">
+        <v>140</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6">
+        <v>150</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6">
         <v>160</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>1002</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="6">
-        <v>16</v>
-      </c>
-      <c r="D35" s="6">
-        <v>50</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" s="4">
-        <v>20045</v>
-      </c>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>1003</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="6">
-        <v>20</v>
-      </c>
-      <c r="D36" s="6">
-        <v>99</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="H36" s="4">
-        <v>20047</v>
-      </c>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>1004</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>199</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>1005</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>1006</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6">
         <v>170</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>1007</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E40">
-        <v>22</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>1008</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E41">
-        <v>29</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>1009</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E42">
-        <v>37</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>1010</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E43">
-        <v>46</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>1011</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1011</v>
-      </c>
-      <c r="D44" s="6">
-        <v>25</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>1012</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="6">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6">
-        <v>50</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
+      <c r="E45" s="6"/>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" s="4">
-        <v>20046</v>
-      </c>
-      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>1013</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="6">
-        <v>20</v>
-      </c>
+      <c r="B46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="7"/>
       <c r="D46" s="6">
-        <v>99</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H46" s="4">
-        <v>20048</v>
-      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>1014</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
+      <c r="B47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="7"/>
       <c r="D47" s="6">
-        <v>199</v>
-      </c>
-      <c r="E47">
-        <v>7</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E47" s="6"/>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>1015</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
+      <c r="B48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="7"/>
       <c r="D48" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E48">
-        <v>11</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E48" s="6"/>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>1016</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="7"/>
       <c r="D49" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E49">
-        <v>16</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>1017</v>
-      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E50">
-        <v>22</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E50" s="6"/>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>1018</v>
-      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C51" s="6"/>
       <c r="D51" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E51">
-        <v>29</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E51" s="6"/>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>1019</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E52">
-        <v>37</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E52" s="6"/>
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>1020</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="6">
-        <v>9999</v>
-      </c>
-      <c r="E53">
-        <v>46</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E53" s="6"/>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>2001</v>
-      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="6">
-        <v>2001</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="6">
-        <v>25</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="6">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
-        <v>10137</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>2002</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="6">
-        <v>2001</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="7"/>
       <c r="D55" s="6">
-        <v>50</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <v>10138</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>2003</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="6">
-        <v>2001</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="6">
-        <v>100</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5">
-        <v>10139</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>2004</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="6">
-        <v>2001</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="6">
-        <v>200</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
-        <v>10140</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>2005</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" s="6">
-        <v>2001</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="6">
         <v>300</v>
       </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5">
-        <v>10141</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>2006</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="6">
-        <v>2001</v>
-      </c>
+      <c r="E58" s="6"/>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="7"/>
       <c r="D59" s="6">
+        <v>310</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="6">
+        <v>320</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6">
+        <v>330</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="6">
+        <v>340</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6">
+        <v>350</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="6">
+        <v>360</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6">
+        <v>370</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6">
+        <v>380</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6">
+        <v>390</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="6">
         <v>400</v>
       </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5">
-        <v>10142</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>2007</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="6">
-        <v>2001</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="E68" s="6"/>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="6">
+        <v>410</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="6">
+        <v>420</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="6">
+        <v>430</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="6">
+        <v>440</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="6">
+        <v>450</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="6">
+        <v>460</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="6">
+        <v>470</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="6">
+        <v>480</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="6">
+        <v>490</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="6">
         <v>500</v>
       </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5">
-        <v>10143</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>2008</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="6">
-        <v>2001</v>
-      </c>
-      <c r="D61" s="6">
-        <v>700</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="6">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5">
-        <v>10144</v>
-      </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>2009</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="6">
-        <v>2001</v>
-      </c>
-      <c r="D62" s="6">
-        <v>900</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5">
-        <v>10145</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>2010</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="6">
-        <v>2001</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5">
-        <v>10146</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>2011</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C64" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D64" s="6">
+      <c r="E78" s="6"/>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="6">
+        <v>510</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="6">
+        <v>520</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="6">
+        <v>530</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="6">
+        <v>540</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="6">
+        <v>550</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="6">
+        <v>560</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="6">
+        <v>570</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5">
-        <v>10147</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>2012</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D65" s="6">
-        <v>50</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="6">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5">
-        <v>10148</v>
-      </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>2013</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C66" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D66" s="6">
-        <v>100</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
-      <c r="F66" s="6">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5">
-        <v>10149</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>2014</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D67" s="6">
-        <v>200</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="6">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5">
-        <v>10150</v>
-      </c>
-      <c r="H67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>2015</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D68" s="6">
-        <v>300</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5">
-        <v>10151</v>
-      </c>
-      <c r="H68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>2016</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D69" s="6">
-        <v>400</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="6">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5">
-        <v>10152</v>
-      </c>
-      <c r="H69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>2017</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D70" s="6">
-        <v>500</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5">
-        <v>10153</v>
-      </c>
-      <c r="H70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>2018</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C71" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D71" s="6">
-        <v>700</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="6">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5">
-        <v>10154</v>
-      </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>2019</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D72" s="6">
-        <v>900</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
-        <v>10155</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>2020</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="6">
-        <v>2002</v>
-      </c>
-      <c r="D73" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5">
-        <v>10156</v>
-      </c>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>2021</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C74" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D74" s="6">
-        <v>25</v>
-      </c>
-      <c r="E74" s="6">
-        <v>0</v>
-      </c>
-      <c r="F74" s="6">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5">
-        <v>10157</v>
-      </c>
-      <c r="H74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>2022</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D75" s="6">
-        <v>50</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5">
-        <v>10158</v>
-      </c>
-      <c r="H75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>2023</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D76" s="6">
-        <v>100</v>
-      </c>
-      <c r="E76" s="6">
-        <v>0</v>
-      </c>
-      <c r="F76" s="6">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5">
-        <v>10159</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>2024</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D77" s="6">
-        <v>200</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5">
-        <v>10160</v>
-      </c>
-      <c r="H77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>2025</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D78" s="6">
-        <v>300</v>
-      </c>
-      <c r="E78" s="6">
-        <v>0</v>
-      </c>
-      <c r="F78" s="6">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5">
-        <v>10161</v>
-      </c>
-      <c r="H78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>2026</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D79" s="6">
-        <v>400</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="6">
-        <v>0</v>
-      </c>
-      <c r="G79" s="5">
-        <v>10162</v>
-      </c>
-      <c r="H79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>2027</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C80" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D80" s="6">
-        <v>500</v>
-      </c>
-      <c r="E80" s="6">
-        <v>0</v>
-      </c>
-      <c r="F80" s="6">
-        <v>0</v>
-      </c>
-      <c r="G80" s="5">
-        <v>10163</v>
-      </c>
-      <c r="H80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>2028</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D81" s="6">
-        <v>700</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5">
-        <v>10164</v>
-      </c>
-      <c r="H81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>2029</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D82" s="6">
-        <v>900</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" s="5">
-        <v>10165</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>2030</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" s="6">
-        <v>2003</v>
-      </c>
-      <c r="D83" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <v>0</v>
-      </c>
-      <c r="G83" s="5">
-        <v>10166</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B88" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="7"/>
+      <c r="D86" s="6">
+        <v>580</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="6">
+        <v>590</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
       <c r="D88" s="6">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B89" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="7"/>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
       <c r="D89" s="6">
-        <v>110</v>
+        <v>610</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B90" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="7"/>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
       <c r="D90" s="6">
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B91" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="7"/>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
       <c r="D91" s="6">
-        <v>130</v>
+        <v>630</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B92" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="7"/>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
       <c r="D92" s="6">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B93" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="7"/>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
       <c r="D93" s="6">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B94" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="7"/>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
       <c r="D94" s="6">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B95" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="7"/>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
       <c r="D95" s="6">
-        <v>170</v>
+        <v>670</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B96" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="7"/>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
       <c r="D96" s="6">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96">
@@ -3761,12 +2930,11 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="7"/>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
       <c r="D97" s="6">
-        <v>190</v>
+        <v>690</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97">
@@ -3774,12 +2942,11 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="7"/>
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
       <c r="D98" s="6">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98">
@@ -3787,12 +2954,11 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="7"/>
+      <c r="B99" t="s">
+        <v>39</v>
+      </c>
       <c r="D99" s="6">
-        <v>210</v>
+        <v>710</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99">
@@ -3800,12 +2966,11 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="6"/>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
       <c r="D100" s="6">
-        <v>220</v>
+        <v>720</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100">
@@ -3813,12 +2978,11 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="6"/>
+      <c r="B101" t="s">
+        <v>41</v>
+      </c>
       <c r="D101" s="6">
-        <v>230</v>
+        <v>730</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101">
@@ -3826,12 +2990,11 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B102" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="7"/>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
       <c r="D102" s="6">
-        <v>240</v>
+        <v>740</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102">
@@ -3839,12 +3002,11 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="7"/>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
       <c r="D103" s="6">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103">
@@ -3852,12 +3014,11 @@
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="6"/>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
       <c r="D104" s="6">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104">
@@ -3865,12 +3026,11 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="7"/>
+      <c r="B105" t="s">
+        <v>58</v>
+      </c>
       <c r="D105" s="6">
-        <v>270</v>
+        <v>770</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105">
@@ -3878,12 +3038,11 @@
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" s="7"/>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
       <c r="D106" s="6">
-        <v>280</v>
+        <v>780</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106">
@@ -3891,12 +3050,11 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C107" s="7"/>
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
       <c r="D107" s="6">
-        <v>290</v>
+        <v>790</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107">
@@ -3904,12 +3062,8 @@
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C108" s="7"/>
       <c r="D108" s="6">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108">
@@ -3917,12 +3071,8 @@
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C109" s="7"/>
       <c r="D109" s="6">
-        <v>310</v>
+        <v>810</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109">
@@ -3930,12 +3080,8 @@
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C110" s="7"/>
       <c r="D110" s="6">
-        <v>320</v>
+        <v>820</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110">
@@ -3943,12 +3089,8 @@
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C111" s="6"/>
       <c r="D111" s="6">
-        <v>330</v>
+        <v>830</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111">
@@ -3956,12 +3098,11 @@
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="7"/>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
       <c r="D112" s="6">
-        <v>340</v>
+        <v>840</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112">
@@ -3969,12 +3110,11 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="7"/>
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
       <c r="D113" s="6">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113">
@@ -3982,12 +3122,11 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B114" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="7"/>
+      <c r="B114" t="s">
+        <v>72</v>
+      </c>
       <c r="D114" s="6">
-        <v>360</v>
+        <v>860</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114">
@@ -3995,12 +3134,11 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B115" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="7"/>
+      <c r="B115" t="s">
+        <v>73</v>
+      </c>
       <c r="D115" s="6">
-        <v>370</v>
+        <v>870</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115">
@@ -4008,12 +3146,11 @@
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B116" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" s="7"/>
+      <c r="B116" t="s">
+        <v>74</v>
+      </c>
       <c r="D116" s="6">
-        <v>380</v>
+        <v>880</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116">
@@ -4021,12 +3158,11 @@
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C117" s="7"/>
+      <c r="B117" t="s">
+        <v>105</v>
+      </c>
       <c r="D117" s="6">
-        <v>390</v>
+        <v>890</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117">
@@ -4034,12 +3170,11 @@
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B118" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C118" s="7"/>
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
       <c r="D118" s="6">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118">
@@ -4047,12 +3182,11 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B119" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C119" s="7"/>
+      <c r="B119" t="s">
+        <v>107</v>
+      </c>
       <c r="D119" s="6">
-        <v>410</v>
+        <v>910</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119">
@@ -4060,12 +3194,11 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B120" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" s="7"/>
+      <c r="B120" t="s">
+        <v>108</v>
+      </c>
       <c r="D120" s="6">
-        <v>420</v>
+        <v>920</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120">
@@ -4073,12 +3206,11 @@
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B121" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="7"/>
+      <c r="B121" t="s">
+        <v>109</v>
+      </c>
       <c r="D121" s="6">
-        <v>430</v>
+        <v>930</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121">
@@ -4086,12 +3218,11 @@
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B122" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="7"/>
+      <c r="B122" t="s">
+        <v>75</v>
+      </c>
       <c r="D122" s="6">
-        <v>440</v>
+        <v>940</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122">
@@ -4099,12 +3230,11 @@
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B123" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="7"/>
+      <c r="B123" t="s">
+        <v>76</v>
+      </c>
       <c r="D123" s="6">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123">
@@ -4112,12 +3242,11 @@
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" s="7"/>
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
       <c r="D124" s="6">
-        <v>460</v>
+        <v>960</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124">
@@ -4125,12 +3254,11 @@
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C125" s="7"/>
+      <c r="B125" t="s">
+        <v>78</v>
+      </c>
       <c r="D125" s="6">
-        <v>470</v>
+        <v>970</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125">
@@ -4138,12 +3266,11 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B126" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C126" s="7"/>
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
       <c r="D126" s="6">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126">
@@ -4151,12 +3278,11 @@
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B127" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C127" s="7"/>
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
       <c r="D127" s="6">
-        <v>490</v>
+        <v>990</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127">
@@ -4164,12 +3290,11 @@
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C128" s="7"/>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
       <c r="D128" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128">
@@ -4177,12 +3302,11 @@
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" s="7"/>
+      <c r="B129" t="s">
+        <v>54</v>
+      </c>
       <c r="D129" s="6">
-        <v>510</v>
+        <v>1010</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129">
@@ -4190,12 +3314,11 @@
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="7"/>
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
       <c r="D130" s="6">
-        <v>520</v>
+        <v>1020</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130">
@@ -4203,12 +3326,11 @@
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C131" s="7"/>
+      <c r="B131" t="s">
+        <v>56</v>
+      </c>
       <c r="D131" s="6">
-        <v>530</v>
+        <v>1030</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131">
@@ -4216,12 +3338,11 @@
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="3"/>
+      <c r="B132" t="s">
+        <v>42</v>
+      </c>
       <c r="D132" s="6">
-        <v>540</v>
+        <v>1040</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132">
@@ -4230,10 +3351,10 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D133" s="6">
-        <v>550</v>
+        <v>1050</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133">
@@ -4242,10 +3363,10 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D134" s="6">
-        <v>560</v>
+        <v>1060</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134">
@@ -4254,10 +3375,10 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D135" s="6">
-        <v>570</v>
+        <v>1070</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135">
@@ -4266,10 +3387,10 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D136" s="6">
-        <v>580</v>
+        <v>1080</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136">
@@ -4278,10 +3399,10 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D137" s="6">
-        <v>590</v>
+        <v>1090</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137">
@@ -4290,10 +3411,10 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D138" s="6">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138">
@@ -4302,10 +3423,10 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D139" s="6">
-        <v>610</v>
+        <v>1110</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139">
@@ -4314,10 +3435,10 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D140" s="6">
-        <v>620</v>
+        <v>1120</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140">
@@ -4326,10 +3447,10 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D141" s="6">
-        <v>630</v>
+        <v>1130</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141">
@@ -4338,10 +3459,10 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D142" s="6">
-        <v>640</v>
+        <v>1140</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142">
@@ -4350,10 +3471,10 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D143" s="6">
-        <v>650</v>
+        <v>1150</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143">
@@ -4362,10 +3483,10 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D144" s="6">
-        <v>660</v>
+        <v>1160</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144">
@@ -4374,10 +3495,10 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D145" s="6">
-        <v>670</v>
+        <v>1170</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145">
@@ -4386,10 +3507,10 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D146" s="6">
-        <v>680</v>
+        <v>1180</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146">
@@ -4398,10 +3519,10 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D147" s="6">
-        <v>690</v>
+        <v>1190</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147">
@@ -4410,10 +3531,10 @@
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D148" s="6">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148">
@@ -4422,10 +3543,10 @@
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D149" s="6">
-        <v>710</v>
+        <v>1210</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149">
@@ -4434,10 +3555,10 @@
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D150" s="6">
-        <v>720</v>
+        <v>1220</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150">
@@ -4446,10 +3567,10 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D151" s="6">
-        <v>730</v>
+        <v>1230</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151">
@@ -4458,10 +3579,10 @@
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D152" s="6">
-        <v>740</v>
+        <v>1240</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152">
@@ -4470,10 +3591,10 @@
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D153" s="6">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153">
@@ -4482,10 +3603,10 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D154" s="6">
-        <v>760</v>
+        <v>1260</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154">
@@ -4494,10 +3615,10 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D155" s="6">
-        <v>770</v>
+        <v>1270</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155">
@@ -4506,10 +3627,10 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D156" s="6">
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156">
@@ -4518,10 +3639,10 @@
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="D157" s="6">
-        <v>790</v>
+        <v>1290</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157">
@@ -4529,8 +3650,11 @@
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>66</v>
+      </c>
       <c r="D158" s="6">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158">
@@ -4538,8 +3662,11 @@
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B159" t="s">
+        <v>67</v>
+      </c>
       <c r="D159" s="6">
-        <v>810</v>
+        <v>1310</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159">
@@ -4547,8 +3674,11 @@
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
+        <v>68</v>
+      </c>
       <c r="D160" s="6">
-        <v>820</v>
+        <v>1320</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160">
@@ -4556,8 +3686,11 @@
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>94</v>
+      </c>
       <c r="D161" s="6">
-        <v>830</v>
+        <v>1330</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161">
@@ -4565,649 +3698,49 @@
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B162" t="s">
-        <v>70</v>
-      </c>
-      <c r="D162" s="6">
-        <v>840</v>
-      </c>
+      <c r="D162" s="6"/>
       <c r="E162" s="6"/>
-      <c r="F162">
-        <v>0</v>
-      </c>
+      <c r="F162" s="6"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B163" t="s">
-        <v>71</v>
-      </c>
-      <c r="D163" s="6">
-        <v>850</v>
-      </c>
+      <c r="D163" s="6"/>
       <c r="E163" s="6"/>
-      <c r="F163">
-        <v>0</v>
-      </c>
+      <c r="F163" s="6"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B164" t="s">
-        <v>72</v>
-      </c>
-      <c r="D164" s="6">
-        <v>860</v>
-      </c>
+      <c r="D164" s="6"/>
       <c r="E164" s="6"/>
-      <c r="F164">
-        <v>0</v>
-      </c>
+      <c r="F164" s="6"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B165" t="s">
-        <v>73</v>
-      </c>
-      <c r="D165" s="6">
-        <v>870</v>
-      </c>
+      <c r="D165" s="6"/>
       <c r="E165" s="6"/>
-      <c r="F165">
-        <v>0</v>
-      </c>
+      <c r="F165" s="6"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B166" t="s">
-        <v>74</v>
-      </c>
-      <c r="D166" s="6">
-        <v>880</v>
-      </c>
+      <c r="D166" s="6"/>
       <c r="E166" s="6"/>
-      <c r="F166">
-        <v>0</v>
-      </c>
+      <c r="F166" s="6"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B167" t="s">
-        <v>105</v>
-      </c>
-      <c r="D167" s="6">
-        <v>890</v>
-      </c>
+      <c r="D167" s="6"/>
       <c r="E167" s="6"/>
-      <c r="F167">
-        <v>0</v>
-      </c>
+      <c r="F167" s="6"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B168" t="s">
-        <v>106</v>
-      </c>
-      <c r="D168" s="6">
-        <v>900</v>
-      </c>
+      <c r="D168" s="6"/>
       <c r="E168" s="6"/>
-      <c r="F168">
-        <v>0</v>
-      </c>
+      <c r="F168" s="6"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B169" t="s">
-        <v>107</v>
-      </c>
-      <c r="D169" s="6">
-        <v>910</v>
-      </c>
+      <c r="D169" s="6"/>
       <c r="E169" s="6"/>
-      <c r="F169">
-        <v>0</v>
-      </c>
+      <c r="F169" s="6"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B170" t="s">
-        <v>108</v>
-      </c>
-      <c r="D170" s="6">
-        <v>920</v>
-      </c>
+      <c r="D170" s="6"/>
       <c r="E170" s="6"/>
-      <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B171" t="s">
-        <v>109</v>
-      </c>
-      <c r="D171" s="6">
-        <v>930</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B172" t="s">
-        <v>75</v>
-      </c>
-      <c r="D172" s="6">
-        <v>940</v>
-      </c>
-      <c r="E172" s="6"/>
-      <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
-        <v>76</v>
-      </c>
-      <c r="D173" s="6">
-        <v>950</v>
-      </c>
-      <c r="E173" s="6"/>
-      <c r="F173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B174" t="s">
-        <v>77</v>
-      </c>
-      <c r="D174" s="6">
-        <v>960</v>
-      </c>
-      <c r="E174" s="6"/>
-      <c r="F174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B175" t="s">
-        <v>78</v>
-      </c>
-      <c r="D175" s="6">
-        <v>970</v>
-      </c>
-      <c r="E175" s="6"/>
-      <c r="F175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B176" t="s">
-        <v>79</v>
-      </c>
-      <c r="D176" s="6">
-        <v>980</v>
-      </c>
-      <c r="E176" s="6"/>
-      <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B177" t="s">
-        <v>52</v>
-      </c>
-      <c r="D177" s="6">
-        <v>990</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B178" t="s">
-        <v>53</v>
-      </c>
-      <c r="D178" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E178" s="6"/>
-      <c r="F178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B179" t="s">
-        <v>54</v>
-      </c>
-      <c r="D179" s="6">
-        <v>1010</v>
-      </c>
-      <c r="E179" s="6"/>
-      <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B180" t="s">
-        <v>55</v>
-      </c>
-      <c r="D180" s="6">
-        <v>1020</v>
-      </c>
-      <c r="E180" s="6"/>
-      <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B181" t="s">
-        <v>56</v>
-      </c>
-      <c r="D181" s="6">
-        <v>1030</v>
-      </c>
-      <c r="E181" s="6"/>
-      <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B182" t="s">
-        <v>42</v>
-      </c>
-      <c r="D182" s="6">
-        <v>1040</v>
-      </c>
-      <c r="E182" s="6"/>
-      <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B183" t="s">
-        <v>43</v>
-      </c>
-      <c r="D183" s="6">
-        <v>1050</v>
-      </c>
-      <c r="E183" s="6"/>
-      <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B184" t="s">
-        <v>44</v>
-      </c>
-      <c r="D184" s="6">
-        <v>1060</v>
-      </c>
-      <c r="E184" s="6"/>
-      <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B185" t="s">
-        <v>45</v>
-      </c>
-      <c r="D185" s="6">
-        <v>1070</v>
-      </c>
-      <c r="E185" s="6"/>
-      <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B186" t="s">
-        <v>46</v>
-      </c>
-      <c r="D186" s="6">
-        <v>1080</v>
-      </c>
-      <c r="E186" s="6"/>
-      <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B187" t="s">
-        <v>85</v>
-      </c>
-      <c r="D187" s="6">
-        <v>1090</v>
-      </c>
-      <c r="E187" s="6"/>
-      <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B188" t="s">
-        <v>86</v>
-      </c>
-      <c r="D188" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E188" s="6"/>
-      <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" t="s">
-        <v>87</v>
-      </c>
-      <c r="D189" s="6">
-        <v>1110</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B190" t="s">
-        <v>88</v>
-      </c>
-      <c r="D190" s="6">
-        <v>1120</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B191" t="s">
-        <v>89</v>
-      </c>
-      <c r="D191" s="6">
-        <v>1130</v>
-      </c>
-      <c r="E191" s="6"/>
-      <c r="F191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B192" t="s">
-        <v>47</v>
-      </c>
-      <c r="D192" s="6">
-        <v>1140</v>
-      </c>
-      <c r="E192" s="6"/>
-      <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B193" t="s">
-        <v>48</v>
-      </c>
-      <c r="D193" s="6">
-        <v>1150</v>
-      </c>
-      <c r="E193" s="6"/>
-      <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B194" t="s">
-        <v>49</v>
-      </c>
-      <c r="D194" s="6">
-        <v>1160</v>
-      </c>
-      <c r="E194" s="6"/>
-      <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B195" t="s">
-        <v>50</v>
-      </c>
-      <c r="D195" s="6">
-        <v>1170</v>
-      </c>
-      <c r="E195" s="6"/>
-      <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" t="s">
-        <v>51</v>
-      </c>
-      <c r="D196" s="6">
-        <v>1180</v>
-      </c>
-      <c r="E196" s="6"/>
-      <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" t="s">
-        <v>97</v>
-      </c>
-      <c r="D197" s="6">
-        <v>1190</v>
-      </c>
-      <c r="E197" s="6"/>
-      <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" t="s">
-        <v>69</v>
-      </c>
-      <c r="D198" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E198" s="6"/>
-      <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B199" t="s">
-        <v>96</v>
-      </c>
-      <c r="D199" s="6">
-        <v>1210</v>
-      </c>
-      <c r="E199" s="6"/>
-      <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B200" t="s">
-        <v>98</v>
-      </c>
-      <c r="D200" s="6">
-        <v>1220</v>
-      </c>
-      <c r="E200" s="6"/>
-      <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B201" t="s">
-        <v>99</v>
-      </c>
-      <c r="D201" s="6">
-        <v>1230</v>
-      </c>
-      <c r="E201" s="6"/>
-      <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B202" t="s">
-        <v>90</v>
-      </c>
-      <c r="D202" s="6">
-        <v>1240</v>
-      </c>
-      <c r="E202" s="6"/>
-      <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B203" t="s">
-        <v>91</v>
-      </c>
-      <c r="D203" s="6">
-        <v>1250</v>
-      </c>
-      <c r="E203" s="6"/>
-      <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B204" t="s">
-        <v>92</v>
-      </c>
-      <c r="D204" s="6">
-        <v>1260</v>
-      </c>
-      <c r="E204" s="6"/>
-      <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B205" t="s">
-        <v>93</v>
-      </c>
-      <c r="D205" s="6">
-        <v>1270</v>
-      </c>
-      <c r="E205" s="6"/>
-      <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B206" t="s">
-        <v>95</v>
-      </c>
-      <c r="D206" s="6">
-        <v>1280</v>
-      </c>
-      <c r="E206" s="6"/>
-      <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B207" t="s">
-        <v>65</v>
-      </c>
-      <c r="D207" s="6">
-        <v>1290</v>
-      </c>
-      <c r="E207" s="6"/>
-      <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B208" t="s">
-        <v>66</v>
-      </c>
-      <c r="D208" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E208" s="6"/>
-      <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B209" t="s">
-        <v>67</v>
-      </c>
-      <c r="D209" s="6">
-        <v>1310</v>
-      </c>
-      <c r="E209" s="6"/>
-      <c r="F209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B210" t="s">
-        <v>68</v>
-      </c>
-      <c r="D210" s="6">
-        <v>1320</v>
-      </c>
-      <c r="E210" s="6"/>
-      <c r="F210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B211" t="s">
-        <v>94</v>
-      </c>
-      <c r="D211" s="6">
-        <v>1330</v>
-      </c>
-      <c r="E211" s="6"/>
-      <c r="F211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="6"/>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="F215" s="6"/>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-      <c r="F216" s="6"/>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-      <c r="F218" s="6"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="F219" s="6"/>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
+      <c r="F170" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -45,64 +45,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-此类消耗以100ms为单位</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-此类消耗以刷怪次数计</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,14 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expend_rep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expend_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雪域国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,6 +761,10 @@
   </si>
   <si>
     <t>21011-21015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,13 +1165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1236,14 +1180,14 @@
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="69.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1257,19 +1201,16 @@
         <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1284,19 +1225,16 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="4">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1311,19 +1249,16 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="4">
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1338,19 +1273,16 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <v>20003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1365,19 +1297,16 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>20004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1392,19 +1321,16 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1419,19 +1345,16 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <v>20009</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1446,19 +1369,16 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1473,19 +1393,16 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1500,19 +1417,16 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>20015</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1527,19 +1441,16 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1554,19 +1465,16 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1581,19 +1489,16 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="4">
         <v>20020</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1608,19 +1513,16 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
         <v>20019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1635,19 +1537,16 @@
         <v>32</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
         <v>20021</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1662,19 +1561,16 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1689,19 +1585,16 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1716,19 +1609,16 @@
         <v>60</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="10">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="10">
         <v>20039</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1743,20 +1633,17 @@
         <v>65</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1">
         <v>20040</v>
       </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1771,25 +1658,22 @@
         <v>70</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="5">
         <v>20041</v>
       </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1798,26 +1682,23 @@
       <c r="D21" s="6">
         <v>80</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="5">
         <v>20042</v>
       </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1826,26 +1707,23 @@
       <c r="D22" s="6">
         <v>90</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -1854,26 +1732,23 @@
       <c r="D23" s="6">
         <v>100</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="5">
         <v>21001</v>
       </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -1882,26 +1757,23 @@
       <c r="D24" s="6">
         <v>115</v>
       </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -1910,26 +1782,23 @@
       <c r="D25" s="6">
         <v>130</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="5">
         <v>21004</v>
       </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -1938,26 +1807,23 @@
       <c r="D26" s="6">
         <v>145</v>
       </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="5">
         <v>21005</v>
       </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -1966,26 +1832,23 @@
       <c r="D27" s="6">
         <v>160</v>
       </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -1994,26 +1857,23 @@
       <c r="D28" s="6">
         <v>175</v>
       </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="5">
         <v>21008</v>
       </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -2022,26 +1882,23 @@
       <c r="D29" s="6">
         <v>200</v>
       </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -2050,26 +1907,23 @@
       <c r="D30" s="6">
         <v>215</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -2078,26 +1932,23 @@
       <c r="D31" s="6">
         <v>230</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="5">
         <v>21016</v>
       </c>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -2106,26 +1957,23 @@
       <c r="D32" s="6">
         <v>245</v>
       </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="5">
         <v>21017</v>
       </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -2134,49 +1982,46 @@
       <c r="D33" s="6">
         <v>260</v>
       </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="5">
         <v>21018</v>
       </c>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B38" s="7" t="s">
         <v>119</v>
       </c>
@@ -2185,11 +2030,8 @@
         <v>100</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B39" s="7" t="s">
         <v>118</v>
       </c>
@@ -2198,11 +2040,8 @@
         <v>110</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
         <v>120</v>
       </c>
@@ -2211,11 +2050,8 @@
         <v>120</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
         <v>121</v>
       </c>
@@ -2224,11 +2060,8 @@
         <v>130</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
         <v>122</v>
       </c>
@@ -2237,11 +2070,8 @@
         <v>140</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
         <v>123</v>
       </c>
@@ -2250,11 +2080,8 @@
         <v>150</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
         <v>154</v>
       </c>
@@ -2263,11 +2090,8 @@
         <v>160</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
         <v>132</v>
       </c>
@@ -2276,11 +2100,8 @@
         <v>170</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
         <v>124</v>
       </c>
@@ -2289,11 +2110,8 @@
         <v>180</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
         <v>155</v>
       </c>
@@ -2302,11 +2120,8 @@
         <v>190</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
         <v>125</v>
       </c>
@@ -2315,11 +2130,8 @@
         <v>200</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
         <v>133</v>
       </c>
@@ -2328,11 +2140,8 @@
         <v>210</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="6" t="s">
         <v>156</v>
       </c>
@@ -2341,11 +2150,8 @@
         <v>220</v>
       </c>
       <c r="E50" s="6"/>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="6" t="s">
         <v>157</v>
       </c>
@@ -2354,11 +2160,8 @@
         <v>230</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
         <v>130</v>
       </c>
@@ -2367,11 +2170,8 @@
         <v>240</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
         <v>126</v>
       </c>
@@ -2380,11 +2180,8 @@
         <v>250</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
         <v>158</v>
       </c>
@@ -2393,11 +2190,8 @@
         <v>260</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
         <v>159</v>
       </c>
@@ -2406,11 +2200,8 @@
         <v>270</v>
       </c>
       <c r="E55" s="6"/>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
         <v>153</v>
       </c>
@@ -2419,11 +2210,8 @@
         <v>280</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
         <v>134</v>
       </c>
@@ -2432,11 +2220,8 @@
         <v>290</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
         <v>127</v>
       </c>
@@ -2445,11 +2230,8 @@
         <v>300</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
         <v>128</v>
       </c>
@@ -2458,11 +2240,8 @@
         <v>310</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
         <v>129</v>
       </c>
@@ -2471,11 +2250,8 @@
         <v>320</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="6" t="s">
         <v>131</v>
       </c>
@@ -2484,11 +2260,8 @@
         <v>330</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
         <v>100</v>
       </c>
@@ -2497,11 +2270,8 @@
         <v>340</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
         <v>101</v>
       </c>
@@ -2510,11 +2280,8 @@
         <v>350</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
         <v>102</v>
       </c>
@@ -2523,11 +2290,8 @@
         <v>360</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
         <v>103</v>
       </c>
@@ -2536,11 +2300,8 @@
         <v>370</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="7" t="s">
         <v>104</v>
       </c>
@@ -2549,11 +2310,8 @@
         <v>380</v>
       </c>
       <c r="E66" s="6"/>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
         <v>60</v>
       </c>
@@ -2562,11 +2320,8 @@
         <v>390</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="7" t="s">
         <v>61</v>
       </c>
@@ -2575,11 +2330,8 @@
         <v>400</v>
       </c>
       <c r="E68" s="6"/>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="7" t="s">
         <v>62</v>
       </c>
@@ -2588,11 +2340,8 @@
         <v>410</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="7" t="s">
         <v>63</v>
       </c>
@@ -2601,11 +2350,8 @@
         <v>420</v>
       </c>
       <c r="E70" s="6"/>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
         <v>64</v>
       </c>
@@ -2614,11 +2360,8 @@
         <v>430</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
         <v>110</v>
       </c>
@@ -2627,11 +2370,8 @@
         <v>440</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
         <v>111</v>
       </c>
@@ -2640,11 +2380,8 @@
         <v>450</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
         <v>112</v>
       </c>
@@ -2653,11 +2390,8 @@
         <v>460</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
         <v>113</v>
       </c>
@@ -2666,11 +2400,8 @@
         <v>470</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
         <v>114</v>
       </c>
@@ -2679,11 +2410,8 @@
         <v>480</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
         <v>80</v>
       </c>
@@ -2692,11 +2420,8 @@
         <v>490</v>
       </c>
       <c r="E77" s="6"/>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
         <v>81</v>
       </c>
@@ -2705,11 +2430,8 @@
         <v>500</v>
       </c>
       <c r="E78" s="6"/>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
         <v>82</v>
       </c>
@@ -2718,11 +2440,8 @@
         <v>510</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
         <v>83</v>
       </c>
@@ -2731,11 +2450,8 @@
         <v>520</v>
       </c>
       <c r="E80" s="6"/>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
         <v>84</v>
       </c>
@@ -2744,11 +2460,8 @@
         <v>530</v>
       </c>
       <c r="E81" s="6"/>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
         <v>22</v>
       </c>
@@ -2757,11 +2470,8 @@
         <v>540</v>
       </c>
       <c r="E82" s="6"/>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>23</v>
       </c>
@@ -2769,11 +2479,8 @@
         <v>550</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>24</v>
       </c>
@@ -2781,11 +2488,8 @@
         <v>560</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>29</v>
       </c>
@@ -2793,11 +2497,8 @@
         <v>570</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>25</v>
       </c>
@@ -2805,11 +2506,8 @@
         <v>580</v>
       </c>
       <c r="E86" s="6"/>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>26</v>
       </c>
@@ -2817,11 +2515,8 @@
         <v>590</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>27</v>
       </c>
@@ -2829,11 +2524,8 @@
         <v>600</v>
       </c>
       <c r="E88" s="6"/>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>28</v>
       </c>
@@ -2841,11 +2533,8 @@
         <v>610</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>30</v>
       </c>
@@ -2853,11 +2542,8 @@
         <v>620</v>
       </c>
       <c r="E90" s="6"/>
-      <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>31</v>
       </c>
@@ -2865,11 +2551,8 @@
         <v>630</v>
       </c>
       <c r="E91" s="6"/>
-      <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>32</v>
       </c>
@@ -2877,11 +2560,8 @@
         <v>640</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>33</v>
       </c>
@@ -2889,11 +2569,8 @@
         <v>650</v>
       </c>
       <c r="E93" s="6"/>
-      <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>34</v>
       </c>
@@ -2901,11 +2578,8 @@
         <v>660</v>
       </c>
       <c r="E94" s="6"/>
-      <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>35</v>
       </c>
@@ -2913,11 +2587,8 @@
         <v>670</v>
       </c>
       <c r="E95" s="6"/>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>36</v>
       </c>
@@ -2925,11 +2596,8 @@
         <v>680</v>
       </c>
       <c r="E96" s="6"/>
-      <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>37</v>
       </c>
@@ -2937,11 +2605,8 @@
         <v>690</v>
       </c>
       <c r="E97" s="6"/>
-      <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>38</v>
       </c>
@@ -2949,11 +2614,8 @@
         <v>700</v>
       </c>
       <c r="E98" s="6"/>
-      <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>39</v>
       </c>
@@ -2961,11 +2623,8 @@
         <v>710</v>
       </c>
       <c r="E99" s="6"/>
-      <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>40</v>
       </c>
@@ -2973,11 +2632,8 @@
         <v>720</v>
       </c>
       <c r="E100" s="6"/>
-      <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>41</v>
       </c>
@@ -2985,11 +2641,8 @@
         <v>730</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>116</v>
       </c>
@@ -2997,11 +2650,8 @@
         <v>740</v>
       </c>
       <c r="E102" s="6"/>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>115</v>
       </c>
@@ -3009,11 +2659,8 @@
         <v>750</v>
       </c>
       <c r="E103" s="6"/>
-      <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>57</v>
       </c>
@@ -3021,11 +2668,8 @@
         <v>760</v>
       </c>
       <c r="E104" s="6"/>
-      <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>58</v>
       </c>
@@ -3033,11 +2677,8 @@
         <v>770</v>
       </c>
       <c r="E105" s="6"/>
-      <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>59</v>
       </c>
@@ -3045,11 +2686,8 @@
         <v>780</v>
       </c>
       <c r="E106" s="6"/>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>117</v>
       </c>
@@ -3057,47 +2695,32 @@
         <v>790</v>
       </c>
       <c r="E107" s="6"/>
-      <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D108" s="6">
         <v>800</v>
       </c>
       <c r="E108" s="6"/>
-      <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D109" s="6">
         <v>810</v>
       </c>
       <c r="E109" s="6"/>
-      <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D110" s="6">
         <v>820</v>
       </c>
       <c r="E110" s="6"/>
-      <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D111" s="6">
         <v>830</v>
       </c>
       <c r="E111" s="6"/>
-      <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>70</v>
       </c>
@@ -3105,11 +2728,8 @@
         <v>840</v>
       </c>
       <c r="E112" s="6"/>
-      <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>71</v>
       </c>
@@ -3117,11 +2737,8 @@
         <v>850</v>
       </c>
       <c r="E113" s="6"/>
-      <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>72</v>
       </c>
@@ -3129,11 +2746,8 @@
         <v>860</v>
       </c>
       <c r="E114" s="6"/>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>73</v>
       </c>
@@ -3141,11 +2755,8 @@
         <v>870</v>
       </c>
       <c r="E115" s="6"/>
-      <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>74</v>
       </c>
@@ -3153,11 +2764,8 @@
         <v>880</v>
       </c>
       <c r="E116" s="6"/>
-      <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>105</v>
       </c>
@@ -3165,11 +2773,8 @@
         <v>890</v>
       </c>
       <c r="E117" s="6"/>
-      <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>106</v>
       </c>
@@ -3177,11 +2782,8 @@
         <v>900</v>
       </c>
       <c r="E118" s="6"/>
-      <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>107</v>
       </c>
@@ -3189,11 +2791,8 @@
         <v>910</v>
       </c>
       <c r="E119" s="6"/>
-      <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>108</v>
       </c>
@@ -3201,11 +2800,8 @@
         <v>920</v>
       </c>
       <c r="E120" s="6"/>
-      <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>109</v>
       </c>
@@ -3213,11 +2809,8 @@
         <v>930</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>75</v>
       </c>
@@ -3225,11 +2818,8 @@
         <v>940</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>76</v>
       </c>
@@ -3237,11 +2827,8 @@
         <v>950</v>
       </c>
       <c r="E123" s="6"/>
-      <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>77</v>
       </c>
@@ -3249,11 +2836,8 @@
         <v>960</v>
       </c>
       <c r="E124" s="6"/>
-      <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>78</v>
       </c>
@@ -3261,11 +2845,8 @@
         <v>970</v>
       </c>
       <c r="E125" s="6"/>
-      <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>79</v>
       </c>
@@ -3273,11 +2854,8 @@
         <v>980</v>
       </c>
       <c r="E126" s="6"/>
-      <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>52</v>
       </c>
@@ -3285,11 +2863,8 @@
         <v>990</v>
       </c>
       <c r="E127" s="6"/>
-      <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>53</v>
       </c>
@@ -3297,11 +2872,8 @@
         <v>1000</v>
       </c>
       <c r="E128" s="6"/>
-      <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>54</v>
       </c>
@@ -3309,11 +2881,8 @@
         <v>1010</v>
       </c>
       <c r="E129" s="6"/>
-      <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>55</v>
       </c>
@@ -3321,11 +2890,8 @@
         <v>1020</v>
       </c>
       <c r="E130" s="6"/>
-      <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>56</v>
       </c>
@@ -3333,11 +2899,8 @@
         <v>1030</v>
       </c>
       <c r="E131" s="6"/>
-      <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>42</v>
       </c>
@@ -3345,11 +2908,8 @@
         <v>1040</v>
       </c>
       <c r="E132" s="6"/>
-      <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>43</v>
       </c>
@@ -3357,11 +2917,8 @@
         <v>1050</v>
       </c>
       <c r="E133" s="6"/>
-      <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>44</v>
       </c>
@@ -3369,11 +2926,8 @@
         <v>1060</v>
       </c>
       <c r="E134" s="6"/>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>45</v>
       </c>
@@ -3381,11 +2935,8 @@
         <v>1070</v>
       </c>
       <c r="E135" s="6"/>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>46</v>
       </c>
@@ -3393,11 +2944,8 @@
         <v>1080</v>
       </c>
       <c r="E136" s="6"/>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>85</v>
       </c>
@@ -3405,11 +2953,8 @@
         <v>1090</v>
       </c>
       <c r="E137" s="6"/>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>86</v>
       </c>
@@ -3417,11 +2962,8 @@
         <v>1100</v>
       </c>
       <c r="E138" s="6"/>
-      <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>87</v>
       </c>
@@ -3429,11 +2971,8 @@
         <v>1110</v>
       </c>
       <c r="E139" s="6"/>
-      <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>88</v>
       </c>
@@ -3441,11 +2980,8 @@
         <v>1120</v>
       </c>
       <c r="E140" s="6"/>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>89</v>
       </c>
@@ -3453,11 +2989,8 @@
         <v>1130</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>47</v>
       </c>
@@ -3465,11 +2998,8 @@
         <v>1140</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>48</v>
       </c>
@@ -3477,11 +3007,8 @@
         <v>1150</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>49</v>
       </c>
@@ -3489,11 +3016,8 @@
         <v>1160</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>50</v>
       </c>
@@ -3501,11 +3025,8 @@
         <v>1170</v>
       </c>
       <c r="E145" s="6"/>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>51</v>
       </c>
@@ -3513,11 +3034,8 @@
         <v>1180</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>97</v>
       </c>
@@ -3525,11 +3043,8 @@
         <v>1190</v>
       </c>
       <c r="E147" s="6"/>
-      <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>69</v>
       </c>
@@ -3537,11 +3052,8 @@
         <v>1200</v>
       </c>
       <c r="E148" s="6"/>
-      <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>96</v>
       </c>
@@ -3549,11 +3061,8 @@
         <v>1210</v>
       </c>
       <c r="E149" s="6"/>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>98</v>
       </c>
@@ -3561,11 +3070,8 @@
         <v>1220</v>
       </c>
       <c r="E150" s="6"/>
-      <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>99</v>
       </c>
@@ -3573,11 +3079,8 @@
         <v>1230</v>
       </c>
       <c r="E151" s="6"/>
-      <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>90</v>
       </c>
@@ -3585,11 +3088,8 @@
         <v>1240</v>
       </c>
       <c r="E152" s="6"/>
-      <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>91</v>
       </c>
@@ -3597,11 +3097,8 @@
         <v>1250</v>
       </c>
       <c r="E153" s="6"/>
-      <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>92</v>
       </c>
@@ -3609,11 +3106,8 @@
         <v>1260</v>
       </c>
       <c r="E154" s="6"/>
-      <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>93</v>
       </c>
@@ -3621,11 +3115,8 @@
         <v>1270</v>
       </c>
       <c r="E155" s="6"/>
-      <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>95</v>
       </c>
@@ -3633,11 +3124,8 @@
         <v>1280</v>
       </c>
       <c r="E156" s="6"/>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>65</v>
       </c>
@@ -3645,11 +3133,8 @@
         <v>1290</v>
       </c>
       <c r="E157" s="6"/>
-      <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>66</v>
       </c>
@@ -3657,11 +3142,8 @@
         <v>1300</v>
       </c>
       <c r="E158" s="6"/>
-      <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>67</v>
       </c>
@@ -3669,11 +3151,8 @@
         <v>1310</v>
       </c>
       <c r="E159" s="6"/>
-      <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>68</v>
       </c>
@@ -3681,11 +3160,8 @@
         <v>1320</v>
       </c>
       <c r="E160" s="6"/>
-      <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>94</v>
       </c>
@@ -3693,54 +3169,42 @@
         <v>1330</v>
       </c>
       <c r="E161" s="6"/>
-      <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="14565" windowHeight="9360"/>
+    <workbookView xWindow="4440" yWindow="-60" windowWidth="14565" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="distribute" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔龙寨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沧海平原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20027-20031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10012-10018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,6 +757,34 @@
   </si>
   <si>
     <t>MonsterCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙祭坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙血域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10075-10077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10078-10080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙东关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔龙西关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1195,13 +1215,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>13</v>
@@ -1215,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <f>A2</f>
@@ -1242,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C33" si="0">A3</f>
+        <f t="shared" ref="C3:C37" si="0">A3</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -1252,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G3" s="4">
         <v>20001</v>
@@ -1276,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" s="4">
         <v>20003</v>
@@ -1300,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5" s="4">
         <v>20004</v>
@@ -1324,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -1348,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="4">
         <v>20009</v>
@@ -1372,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>4</v>
@@ -1396,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>2</v>
@@ -1420,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="4">
         <v>20015</v>
@@ -1444,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1468,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1492,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="4">
         <v>20020</v>
@@ -1516,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G14" s="4">
         <v>20019</v>
@@ -1540,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" s="4">
         <v>20021</v>
@@ -1551,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1564,182 +1584,178 @@
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
+      <c r="B17" t="s">
+        <v>206</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D17" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>139</v>
+        <v>204</v>
+      </c>
+      <c r="G17" s="10">
+        <v>20028</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>135</v>
+      <c r="B18" t="s">
+        <v>207</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D18" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="G18" s="10">
-        <v>20039</v>
+        <v>20029</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>166</v>
+      <c r="B19" t="s">
+        <v>201</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D19" s="6">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="1">
-        <v>20040</v>
-      </c>
-      <c r="J19" s="6"/>
+      <c r="F19" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="10">
+        <v>20027</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>163</v>
+      <c r="B20" t="s">
+        <v>202</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D20" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="5">
-        <v>20041</v>
-      </c>
-      <c r="J20" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="G20" s="10">
+        <v>20031</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>167</v>
+      <c r="B21" t="s">
+        <v>203</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D21" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="5">
-        <v>20042</v>
-      </c>
-      <c r="J21" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="G21" s="10">
+        <v>20030</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D22" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="G22" s="10">
+        <v>20039</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D23" s="6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="5">
-        <v>21001</v>
+      <c r="F23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20040</v>
       </c>
       <c r="J23" s="6"/>
     </row>
@@ -1748,23 +1764,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D24" s="6">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>193</v>
+        <v>170</v>
+      </c>
+      <c r="G24" s="5">
+        <v>20041</v>
       </c>
       <c r="J24" s="6"/>
     </row>
@@ -1773,23 +1789,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D25" s="6">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G25" s="5">
-        <v>21004</v>
+        <v>20042</v>
       </c>
       <c r="J25" s="6"/>
     </row>
@@ -1798,23 +1814,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D26" s="6">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="5">
-        <v>21005</v>
+        <v>172</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="J26" s="6"/>
     </row>
@@ -1823,23 +1839,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D27" s="6">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
+      </c>
+      <c r="G27" s="5">
+        <v>21001</v>
       </c>
       <c r="J27" s="6"/>
     </row>
@@ -1848,23 +1864,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D28" s="6">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="G28" s="5">
-        <v>21008</v>
       </c>
       <c r="J28" s="6"/>
     </row>
@@ -1873,23 +1889,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D29" s="6">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
+      </c>
+      <c r="G29" s="5">
+        <v>21004</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -1898,23 +1914,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D30" s="6">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G30" s="5">
+        <v>21005</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -1923,23 +1939,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D31" s="6">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="5">
-        <v>21016</v>
+        <v>190</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="J31" s="6"/>
     </row>
@@ -1948,23 +1964,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D32" s="6">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G32" s="5">
-        <v>21017</v>
+        <v>21008</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -1973,555 +1989,619 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D33" s="6">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D34" s="6">
+        <v>215</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="5">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="6">
+        <v>230</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="5">
+        <v>21016</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="6">
+        <v>245</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="5">
+        <v>21017</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D37" s="6">
+        <v>260</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="5">
         <v>21018</v>
       </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6">
-        <v>100</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6">
-        <v>110</v>
-      </c>
-      <c r="E39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6">
-        <v>120</v>
-      </c>
-      <c r="E40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6">
-        <v>130</v>
-      </c>
-      <c r="E41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="6"/>
+      <c r="B50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="7"/>
       <c r="D50" s="6">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="6"/>
+      <c r="B51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="6">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="7"/>
+      <c r="B55" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="6">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="7"/>
+      <c r="B58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="6">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="6"/>
+      <c r="B61" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="6">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="7"/>
+      <c r="B65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="6"/>
       <c r="D65" s="6">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="7" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="7" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="6">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="6">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="6">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="6">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="6">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="6">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="6">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="6">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="6">
+        <v>490</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="6">
+        <v>500</v>
+      </c>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="6">
+        <v>510</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="6">
+        <v>520</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="6">
         <v>530</v>
       </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="6">
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="6">
         <v>540</v>
-      </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="6">
-        <v>550</v>
-      </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="6">
-        <v>560</v>
-      </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="6">
-        <v>570</v>
-      </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="6">
-        <v>580</v>
       </c>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D87" s="6">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D88" s="6">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="E88" s="6"/>
     </row>
@@ -2530,660 +2610,680 @@
         <v>28</v>
       </c>
       <c r="D89" s="6">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D90" s="6">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D91" s="6">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D92" s="6">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D93" s="6">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D94" s="6">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D95" s="6">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D96" s="6">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D97" s="6">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D98" s="6">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D99" s="6">
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D100" s="6">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D101" s="6">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="D102" s="6">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D103" s="6">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D104" s="6">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D105" s="6">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="D106" s="6">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D107" s="6">
+        <v>750</v>
+      </c>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="6">
+        <v>760</v>
+      </c>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="6">
+        <v>770</v>
+      </c>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="6">
+        <v>780</v>
+      </c>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="6">
         <v>790</v>
       </c>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D108" s="6">
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D112" s="6">
         <v>800</v>
       </c>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D109" s="6">
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D113" s="6">
         <v>810</v>
       </c>
-      <c r="E109" s="6"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D110" s="6">
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D114" s="6">
         <v>820</v>
       </c>
-      <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D111" s="6">
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D115" s="6">
         <v>830</v>
-      </c>
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="6">
-        <v>840</v>
-      </c>
-      <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" s="6">
-        <v>850</v>
-      </c>
-      <c r="E113" s="6"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>72</v>
-      </c>
-      <c r="D114" s="6">
-        <v>860</v>
-      </c>
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
-        <v>73</v>
-      </c>
-      <c r="D115" s="6">
-        <v>870</v>
       </c>
       <c r="E115" s="6"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D116" s="6">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D117" s="6">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D118" s="6">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D119" s="6">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D120" s="6">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D121" s="6">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="E121" s="6"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D122" s="6">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="E122" s="6"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D123" s="6">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D124" s="6">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="E124" s="6"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D125" s="6">
-        <v>970</v>
+        <v>930</v>
       </c>
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D126" s="6">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="E126" s="6"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D127" s="6">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D128" s="6">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="E128" s="6"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D129" s="6">
-        <v>1010</v>
+        <v>970</v>
       </c>
       <c r="E129" s="6"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D130" s="6">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="E130" s="6"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D131" s="6">
-        <v>1030</v>
+        <v>990</v>
       </c>
       <c r="E131" s="6"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D132" s="6">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D133" s="6">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D134" s="6">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D135" s="6">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D136" s="6">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D137" s="6">
-        <v>1090</v>
+        <v>1050</v>
       </c>
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D138" s="6">
-        <v>1100</v>
+        <v>1060</v>
       </c>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D139" s="6">
-        <v>1110</v>
+        <v>1070</v>
       </c>
       <c r="E139" s="6"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D140" s="6">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="E140" s="6"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D141" s="6">
-        <v>1130</v>
+        <v>1090</v>
       </c>
       <c r="E141" s="6"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D142" s="6">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="E142" s="6"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D143" s="6">
-        <v>1150</v>
+        <v>1110</v>
       </c>
       <c r="E143" s="6"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D144" s="6">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="E144" s="6"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D145" s="6">
-        <v>1170</v>
+        <v>1130</v>
       </c>
       <c r="E145" s="6"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D146" s="6">
-        <v>1180</v>
+        <v>1140</v>
       </c>
       <c r="E146" s="6"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="D147" s="6">
-        <v>1190</v>
+        <v>1150</v>
       </c>
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D148" s="6">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="E148" s="6"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="D149" s="6">
-        <v>1210</v>
+        <v>1170</v>
       </c>
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D150" s="6">
-        <v>1220</v>
+        <v>1180</v>
       </c>
       <c r="E150" s="6"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D151" s="6">
-        <v>1230</v>
+        <v>1190</v>
       </c>
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D152" s="6">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="E152" s="6"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D153" s="6">
-        <v>1250</v>
+        <v>1210</v>
       </c>
       <c r="E153" s="6"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D154" s="6">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D155" s="6">
-        <v>1270</v>
+        <v>1230</v>
       </c>
       <c r="E155" s="6"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D156" s="6">
-        <v>1280</v>
+        <v>1240</v>
       </c>
       <c r="E156" s="6"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D157" s="6">
-        <v>1290</v>
+        <v>1250</v>
       </c>
       <c r="E157" s="6"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D158" s="6">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="E158" s="6"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D159" s="6">
-        <v>1310</v>
+        <v>1270</v>
       </c>
       <c r="E159" s="6"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D160" s="6">
-        <v>1320</v>
+        <v>1280</v>
       </c>
       <c r="E160" s="6"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D161" s="6">
+        <v>1290</v>
+      </c>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B162" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1300</v>
+      </c>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B163" t="s">
+        <v>66</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1310</v>
+      </c>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>67</v>
+      </c>
+      <c r="D164" s="6">
+        <v>1320</v>
+      </c>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
+        <v>93</v>
+      </c>
+      <c r="D165" s="6">
         <v>1330</v>
       </c>
-      <c r="E161" s="6"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D165" s="6"/>
       <c r="E165" s="6"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
@@ -3205,6 +3305,22 @@
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="-60" windowWidth="14565" windowHeight="9360"/>
+    <workbookView xWindow="4440" yWindow="-30" windowWidth="14565" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="distribute" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雷炎窟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手试练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10092-10101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10102-10113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,6 +777,22 @@
   </si>
   <si>
     <t>魔龙西关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷炎窟1层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷炎窟2层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10092-10097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10098-10101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,13 +1193,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1215,13 +1223,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>13</v>
@@ -1235,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <f>A2</f>
@@ -1262,7 +1270,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C37" si="0">A3</f>
+        <f t="shared" ref="C3:C24" si="0">A3</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -1272,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G3" s="4">
         <v>20001</v>
@@ -1296,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="4">
         <v>20003</v>
@@ -1320,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="4">
         <v>20004</v>
@@ -1344,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -1368,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="4">
         <v>20009</v>
@@ -1392,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>4</v>
@@ -1416,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>2</v>
@@ -1440,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="4">
         <v>20015</v>
@@ -1464,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1488,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1512,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="4">
         <v>20020</v>
@@ -1536,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="4">
         <v>20019</v>
@@ -1560,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" s="4">
         <v>20021</v>
@@ -1571,7 +1579,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1584,10 +1592,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1595,7 +1603,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1608,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G17" s="10">
         <v>20028</v>
@@ -1619,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1632,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18" s="10">
         <v>20029</v>
@@ -1643,7 +1651,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1656,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G19" s="10">
         <v>20027</v>
@@ -1667,7 +1675,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -1680,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="10">
         <v>20031</v>
@@ -1691,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1704,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G21" s="10">
         <v>20030</v>
@@ -1715,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1728,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="G22" s="10">
         <v>20039</v>
@@ -1739,48 +1747,47 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C23" si="1">A23</f>
         <v>22</v>
       </c>
       <c r="D23" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="1">
-        <v>20040</v>
-      </c>
-      <c r="J23" s="6"/>
+      <c r="F23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="10">
+        <v>20039</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D24" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="5">
-        <v>20041</v>
+      <c r="F24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20040</v>
       </c>
       <c r="J24" s="6"/>
     </row>
@@ -1789,23 +1796,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" s="5">
-        <v>20042</v>
+        <v>20041</v>
       </c>
       <c r="J25" s="6"/>
     </row>
@@ -1814,23 +1820,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="G26" s="5">
+        <v>20042</v>
       </c>
       <c r="J26" s="6"/>
     </row>
@@ -1839,23 +1844,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" s="5">
-        <v>21001</v>
+        <v>170</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="J27" s="6"/>
     </row>
@@ -1864,23 +1868,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="G28" s="5">
+        <v>21001</v>
       </c>
       <c r="J28" s="6"/>
     </row>
@@ -1889,23 +1892,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="5">
-        <v>21004</v>
+        <v>184</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -1914,23 +1916,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G30" s="5">
-        <v>21005</v>
+        <v>21004</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -1939,23 +1940,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="G31" s="5">
+        <v>21005</v>
       </c>
       <c r="J31" s="6"/>
     </row>
@@ -1964,23 +1964,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="5">
-        <v>21008</v>
+        <v>188</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -1989,23 +1988,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
+      </c>
+      <c r="G33" s="5">
+        <v>21008</v>
       </c>
       <c r="J33" s="6"/>
     </row>
@@ -2014,23 +2012,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J34" s="6"/>
     </row>
@@ -2039,23 +2036,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="5">
-        <v>21016</v>
+        <v>192</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="J35" s="6"/>
     </row>
@@ -2064,23 +2060,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G36" s="5">
-        <v>21017</v>
+        <v>21016</v>
       </c>
       <c r="J36" s="6"/>
     </row>
@@ -2089,32 +2084,48 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G37" s="5">
+        <v>21017</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>260</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="5">
         <v>21018</v>
       </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
@@ -2138,1156 +2149,1159 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6">
-        <v>100</v>
-      </c>
-      <c r="E42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6">
+        <v>200</v>
+      </c>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="6">
         <v>210</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6">
-        <v>220</v>
       </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6">
+        <v>220</v>
+      </c>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6">
         <v>230</v>
-      </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6">
-        <v>240</v>
       </c>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6">
+        <v>240</v>
+      </c>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="6">
         <v>250</v>
       </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6">
         <v>260</v>
-      </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6">
-        <v>270</v>
       </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="6">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6">
+        <v>310</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6">
         <v>320</v>
       </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="6" t="s">
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6">
         <v>330</v>
-      </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6">
-        <v>340</v>
       </c>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="6">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="6">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="6">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="6">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="6">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="6">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="6">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="6">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="6">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="6">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="6">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="6">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="6">
+        <v>520</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="6">
         <v>530</v>
       </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" s="3" t="s">
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="6">
+      <c r="C87" s="3"/>
+      <c r="D87" s="6">
         <v>540</v>
-      </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="6">
-        <v>550</v>
       </c>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D88" s="6">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D89" s="6">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D90" s="6">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D91" s="6">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" s="6">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" s="6">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="6">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95" s="6">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="6">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97" s="6">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="6">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" s="6">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="6">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D101" s="6">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D102" s="6">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D103" s="6">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D104" s="6">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D105" s="6">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D106" s="6">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D107" s="6">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="D108" s="6">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D109" s="6">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D110" s="6">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="6">
+        <v>780</v>
+      </c>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
         <v>116</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D112" s="6">
         <v>790</v>
-      </c>
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D112" s="6">
-        <v>800</v>
       </c>
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D113" s="6">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E113" s="6"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="6">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D115" s="6">
+        <v>820</v>
+      </c>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D116" s="6">
         <v>830</v>
-      </c>
-      <c r="E115" s="6"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
-        <v>69</v>
-      </c>
-      <c r="D116" s="6">
-        <v>840</v>
       </c>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D117" s="6">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="6">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D119" s="6">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D120" s="6">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D121" s="6">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E121" s="6"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D122" s="6">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="E122" s="6"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D123" s="6">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D124" s="6">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E124" s="6"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D125" s="6">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D126" s="6">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E126" s="6"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D127" s="6">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E127" s="6"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D128" s="6">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E128" s="6"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D129" s="6">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="E129" s="6"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D130" s="6">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="E130" s="6"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D131" s="6">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="E131" s="6"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D132" s="6">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D133" s="6">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D134" s="6">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D135" s="6">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D136" s="6">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E136" s="6"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D137" s="6">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D138" s="6">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D139" s="6">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="E139" s="6"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D140" s="6">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="E140" s="6"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D141" s="6">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="E141" s="6"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D142" s="6">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="E142" s="6"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D143" s="6">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="E143" s="6"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D144" s="6">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="E144" s="6"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D145" s="6">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="E145" s="6"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D146" s="6">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="E146" s="6"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D147" s="6">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D148" s="6">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="E148" s="6"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D149" s="6">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D150" s="6">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="E150" s="6"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D151" s="6">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D152" s="6">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="E152" s="6"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D153" s="6">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="E153" s="6"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D154" s="6">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D155" s="6">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="E155" s="6"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D156" s="6">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="E156" s="6"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D157" s="6">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="E157" s="6"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D158" s="6">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="E158" s="6"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D159" s="6">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="E159" s="6"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D160" s="6">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="E160" s="6"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D161" s="6">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="E161" s="6"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D162" s="6">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E162" s="6"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D163" s="6">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="E163" s="6"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D164" s="6">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="E164" s="6"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
+        <v>67</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1320</v>
+      </c>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B166" t="s">
         <v>93</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D166" s="6">
         <v>1330</v>
       </c>
-      <c r="E165" s="6"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D166" s="6"/>
       <c r="E166" s="6"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
@@ -3321,6 +3335,10 @@
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/地图定义.xlsx
+++ b/documents/地图定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="-30" windowWidth="14565" windowHeight="9330"/>
+    <workbookView xWindow="4260" yWindow="30" windowWidth="15345" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="distribute" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
   <si>
     <t>封魔殿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,27 +59,15 @@
     <t>牛魔寺庙</t>
   </si>
   <si>
-    <t>20012-20014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猪洞</t>
   </si>
   <si>
-    <t>20010-20011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蜈蚣洞</t>
   </si>
   <si>
     <t>毒蛇山谷</t>
   </si>
   <si>
-    <t>20005-20006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沃玛神殿</t>
   </si>
   <si>
@@ -89,16 +77,6 @@
     <t>半兽人古墓</t>
   </si>
   <si>
-    <t>10001-10003</t>
-  </si>
-  <si>
-    <t>BOSS</t>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mapID</t>
   </si>
   <si>
@@ -496,66 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20016-20018,20025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012-20013,20022-20024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012-10018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10019-10023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10024-10029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030-10033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10035-10039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10040-10043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10044-10051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10052-10060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10040-10051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10061-10062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10063-10066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10067-10074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10075-10080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵马俑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,18 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10081-10083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20032-20038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狐月山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>need_lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,38 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雪域国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火龙洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10084-10091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20043-20044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10102-10113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10114-10126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10127-10136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004-10010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界林矿洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,14 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21002-21003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21006-21007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12001-12008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,14 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21009-21010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21011-21015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,14 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10075-10077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10078-10080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔龙东关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,11 +638,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10092-10097</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10098-10101</t>
+    <t>矿洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001-100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐月山1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐月山2</t>
+  </si>
+  <si>
+    <t>雪域国1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域国2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域国3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙洞1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙洞2</t>
+  </si>
+  <si>
+    <t>100021-100025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100004-100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100027-100032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100033-100034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100035-100038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100042-100046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100059-100060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100046-100051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100061-100063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100046-100047,100051-100058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100065-100073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100074-100076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100046-100058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100061-100062,100094-100096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100077-100078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100080-100083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100085-100092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100099-100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100102-100108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100109-100111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100109-100114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100120-100126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100127-100129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100131-100138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100140-100144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100145-100150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100153-100157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100155-100161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100162-100164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100167-100176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100013-100019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,21 +866,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -889,7 +891,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,13 +1198,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1209,33 +1214,33 @@
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="69.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
+      <c r="F1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1243,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <f>A2</f>
@@ -1255,11 +1260,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10003</v>
+      <c r="F2" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1267,10 +1269,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C24" si="0">A3</f>
+        <f t="shared" ref="C3:C31" si="0">A3</f>
         <v>2</v>
       </c>
       <c r="D3">
@@ -1279,2066 +1281,2146 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="4">
-        <v>20001</v>
+      <c r="F3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100012</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="4">
-        <v>20003</v>
+      <c r="F4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="9">
+        <v>100020</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="4">
-        <v>20004</v>
+      <c r="F5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="9">
+        <v>100026</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>17</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
+      <c r="F6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>12</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="4">
-        <v>20009</v>
+      <c r="F7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="9">
+        <v>100041</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
+      <c r="F8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2</v>
+      <c r="F9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>30</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="4">
-        <v>20015</v>
+      <c r="F10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="9">
+        <v>100064</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>40</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>135</v>
+      <c r="F11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>28</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>136</v>
+      <c r="F12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="4">
-        <v>20020</v>
+      <c r="F13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="9">
+        <v>100079</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>28</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="4">
-        <v>20019</v>
+      <c r="F14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="9">
+        <v>100084</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>32</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="4">
-        <v>20021</v>
+      <c r="F15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="9">
+        <v>100093</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>157</v>
+      <c r="B16" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>42</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>45</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="10">
-        <v>20028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="9">
+        <v>100116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>45</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="10">
-        <v>20029</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="9">
+        <v>100117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>45</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="10">
-        <v>20027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="9">
+        <v>100115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>47</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="10">
-        <v>20031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="9">
+        <v>100119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>50</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G21" s="10">
-        <v>20030</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="9">
+        <v>100118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>206</v>
+      <c r="B22" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>60</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="10">
-        <v>20039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="9">
+        <v>100130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>207</v>
+      <c r="B23" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23" si="1">A23</f>
         <v>22</v>
       </c>
-      <c r="D23" s="6">
-        <v>60</v>
+      <c r="D23" s="4">
+        <v>65</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="10">
-        <v>20039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="9">
+        <v>100130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>163</v>
+      <c r="B24" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>65</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="1">
-        <v>20040</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="9">
+        <v>100139</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>160</v>
+      <c r="B25" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="4">
         <v>70</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="5">
-        <v>20041</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="9">
+        <v>100151</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>164</v>
+      <c r="B26" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>80</v>
-      </c>
-      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>75</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="5">
-        <v>20042</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="9">
+        <v>100152</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>165</v>
+      <c r="B27" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D27" s="4">
+        <v>80</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="9">
+        <v>100165</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>172</v>
+      <c r="B28" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="4">
+        <v>82</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="5">
-        <v>21001</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" s="9">
+        <v>100165</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>173</v>
+      <c r="B29" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D29" s="4">
+        <v>85</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="9">
+        <v>100166</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>174</v>
+      <c r="B30" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D30" s="4">
+        <v>90</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="5">
-        <v>21004</v>
-      </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="9">
+        <v>100177</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>175</v>
+      <c r="B31" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>145</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D31" s="4">
+        <v>95</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" s="5">
-        <v>21005</v>
-      </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100178</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>160</v>
-      </c>
-      <c r="E32">
+        <v>1001</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="4">
         <v>4</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="D32" s="4">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>175</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33" s="5">
-        <v>21008</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>200</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>179</v>
+      <c r="B35" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="6">
-        <v>215</v>
+      <c r="D35" s="4">
+        <v>0</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>180</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="6">
-        <v>230</v>
+      <c r="D36" s="4">
+        <v>0</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G36" s="5">
-        <v>21016</v>
-      </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>181</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="6">
-        <v>245</v>
+      <c r="D37" s="4">
+        <v>0</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="5">
-        <v>21017</v>
-      </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>182</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="6">
-        <v>260</v>
+      <c r="D38" s="4">
+        <v>0</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="5">
-        <v>21018</v>
-      </c>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="7" t="s">
+      <c r="F38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4">
+        <v>100</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4">
+        <v>110</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="4">
+        <v>120</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="4">
+        <v>130</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4">
+        <v>140</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="4">
+        <v>150</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4">
+        <v>160</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4">
+        <v>170</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4">
+        <v>180</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4">
+        <v>190</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6">
-        <v>100</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6">
-        <v>110</v>
-      </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="7" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="4">
+        <v>200</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="4">
+        <v>210</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4">
+        <v>220</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4">
+        <v>230</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="4">
+        <v>240</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6">
+      <c r="C62" s="5"/>
+      <c r="D62" s="4">
+        <v>250</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4">
+        <v>260</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="4">
+        <v>270</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="4">
+        <v>280</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="4">
+        <v>290</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6">
-        <v>130</v>
-      </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="7" t="s">
+      <c r="C67" s="5"/>
+      <c r="D67" s="4">
+        <v>300</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6">
-        <v>140</v>
-      </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="7" t="s">
+      <c r="C68" s="5"/>
+      <c r="D68" s="4">
+        <v>310</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6">
-        <v>150</v>
-      </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6">
-        <v>160</v>
-      </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6">
-        <v>170</v>
-      </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6">
-        <v>180</v>
-      </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6">
-        <v>190</v>
-      </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B53" s="7" t="s">
+      <c r="C69" s="5"/>
+      <c r="D69" s="4">
+        <v>320</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6">
-        <v>200</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6">
-        <v>210</v>
-      </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6">
-        <v>220</v>
-      </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6">
-        <v>230</v>
-      </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B57" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6">
-        <v>240</v>
-      </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6">
-        <v>250</v>
-      </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6">
-        <v>260</v>
-      </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6">
-        <v>270</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6">
-        <v>280</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6">
-        <v>290</v>
-      </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6">
-        <v>300</v>
-      </c>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B64" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6">
-        <v>310</v>
-      </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6">
-        <v>320</v>
-      </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4">
         <v>330</v>
       </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="4">
         <v>340</v>
       </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B68" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="4">
         <v>350</v>
       </c>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="4">
         <v>360</v>
       </c>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6">
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="4">
         <v>370</v>
       </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B71" s="7" t="s">
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B75" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="4">
+        <v>380</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="4">
+        <v>390</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B77" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="4">
+        <v>400</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="4">
+        <v>410</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B79" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="4">
+        <v>420</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B80" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="4">
+        <v>430</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="6">
-        <v>380</v>
-      </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B72" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6">
-        <v>390</v>
-      </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B73" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6">
-        <v>400</v>
-      </c>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B74" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6">
-        <v>410</v>
-      </c>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B75" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6">
-        <v>420</v>
-      </c>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B76" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="6">
-        <v>430</v>
-      </c>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B77" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="6">
+      <c r="C81" s="5"/>
+      <c r="D81" s="4">
         <v>440</v>
       </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B78" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="4">
         <v>450</v>
       </c>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B79" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="4">
         <v>460</v>
       </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B80" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="4">
         <v>470</v>
       </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B81" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="6">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="4">
         <v>480</v>
       </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="4">
         <v>490</v>
       </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="4">
         <v>500</v>
       </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="6">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="4">
         <v>510</v>
       </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="6">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="4">
         <v>520</v>
       </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B86" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="6">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="4">
         <v>530</v>
       </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="6">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="4">
         <v>540</v>
       </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="6">
-        <v>550</v>
-      </c>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="6">
-        <v>560</v>
-      </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="6">
-        <v>570</v>
-      </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="6">
-        <v>580</v>
-      </c>
-      <c r="E91" s="6"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="6">
-        <v>590</v>
-      </c>
-      <c r="E92" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="D92" s="4">
+        <v>550</v>
+      </c>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="6">
-        <v>600</v>
-      </c>
-      <c r="E93" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D93" s="4">
+        <v>560</v>
+      </c>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="6">
-        <v>610</v>
-      </c>
-      <c r="E94" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D94" s="4">
+        <v>570</v>
+      </c>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" s="6">
-        <v>620</v>
-      </c>
-      <c r="E95" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D95" s="4">
+        <v>580</v>
+      </c>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="6">
-        <v>630</v>
-      </c>
-      <c r="E96" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D96" s="4">
+        <v>590</v>
+      </c>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>31</v>
-      </c>
-      <c r="D97" s="6">
-        <v>640</v>
-      </c>
-      <c r="E97" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D97" s="4">
+        <v>600</v>
+      </c>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" s="6">
-        <v>650</v>
-      </c>
-      <c r="E98" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D98" s="4">
+        <v>610</v>
+      </c>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="6">
-        <v>660</v>
-      </c>
-      <c r="E99" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D99" s="4">
+        <v>620</v>
+      </c>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" s="6">
-        <v>670</v>
-      </c>
-      <c r="E100" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D100" s="4">
+        <v>630</v>
+      </c>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="6">
-        <v>680</v>
-      </c>
-      <c r="E101" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D101" s="4">
+        <v>640</v>
+      </c>
+      <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="6">
-        <v>690</v>
-      </c>
-      <c r="E102" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D102" s="4">
+        <v>650</v>
+      </c>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>37</v>
-      </c>
-      <c r="D103" s="6">
-        <v>700</v>
-      </c>
-      <c r="E103" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D103" s="4">
+        <v>660</v>
+      </c>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>38</v>
-      </c>
-      <c r="D104" s="6">
-        <v>710</v>
-      </c>
-      <c r="E104" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D104" s="4">
+        <v>670</v>
+      </c>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="6">
-        <v>720</v>
-      </c>
-      <c r="E105" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D105" s="4">
+        <v>680</v>
+      </c>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="6">
-        <v>730</v>
-      </c>
-      <c r="E106" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D106" s="4">
+        <v>690</v>
+      </c>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" s="6">
-        <v>740</v>
-      </c>
-      <c r="E107" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D107" s="4">
+        <v>700</v>
+      </c>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>114</v>
-      </c>
-      <c r="D108" s="6">
-        <v>750</v>
-      </c>
-      <c r="E108" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D108" s="4">
+        <v>710</v>
+      </c>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>56</v>
-      </c>
-      <c r="D109" s="6">
-        <v>760</v>
-      </c>
-      <c r="E109" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D109" s="4">
+        <v>720</v>
+      </c>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>57</v>
-      </c>
-      <c r="D110" s="6">
-        <v>770</v>
-      </c>
-      <c r="E110" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D110" s="4">
+        <v>730</v>
+      </c>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>58</v>
-      </c>
-      <c r="D111" s="6">
-        <v>780</v>
-      </c>
-      <c r="E111" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="D111" s="4">
+        <v>740</v>
+      </c>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="6">
+        <v>108</v>
+      </c>
+      <c r="D112" s="4">
+        <v>750</v>
+      </c>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="4">
+        <v>760</v>
+      </c>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="4">
+        <v>770</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="4">
+        <v>780</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" s="4">
         <v>790</v>
       </c>
-      <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D113" s="6">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D117" s="4">
         <v>800</v>
       </c>
-      <c r="E113" s="6"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D114" s="6">
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D118" s="4">
         <v>810</v>
       </c>
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D115" s="6">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D119" s="4">
         <v>820</v>
       </c>
-      <c r="E115" s="6"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D116" s="6">
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D120" s="4">
         <v>830</v>
       </c>
-      <c r="E116" s="6"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D117" s="6">
-        <v>840</v>
-      </c>
-      <c r="E117" s="6"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="6">
-        <v>850</v>
-      </c>
-      <c r="E118" s="6"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
-        <v>71</v>
-      </c>
-      <c r="D119" s="6">
-        <v>860</v>
-      </c>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>72</v>
-      </c>
-      <c r="D120" s="6">
-        <v>870</v>
-      </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>73</v>
-      </c>
-      <c r="D121" s="6">
-        <v>880</v>
-      </c>
-      <c r="E121" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="D121" s="4">
+        <v>840</v>
+      </c>
+      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>104</v>
-      </c>
-      <c r="D122" s="6">
-        <v>890</v>
-      </c>
-      <c r="E122" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D122" s="4">
+        <v>850</v>
+      </c>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>105</v>
-      </c>
-      <c r="D123" s="6">
-        <v>900</v>
-      </c>
-      <c r="E123" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D123" s="4">
+        <v>860</v>
+      </c>
+      <c r="E123" s="4"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" s="6">
-        <v>910</v>
-      </c>
-      <c r="E124" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="D124" s="4">
+        <v>870</v>
+      </c>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>107</v>
-      </c>
-      <c r="D125" s="6">
-        <v>920</v>
-      </c>
-      <c r="E125" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D125" s="4">
+        <v>880</v>
+      </c>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126" s="6">
-        <v>930</v>
-      </c>
-      <c r="E126" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="D126" s="4">
+        <v>890</v>
+      </c>
+      <c r="E126" s="4"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127" s="6">
-        <v>940</v>
-      </c>
-      <c r="E127" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="D127" s="4">
+        <v>900</v>
+      </c>
+      <c r="E127" s="4"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" s="6">
-        <v>950</v>
-      </c>
-      <c r="E128" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="D128" s="4">
+        <v>910</v>
+      </c>
+      <c r="E128" s="4"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>76</v>
-      </c>
-      <c r="D129" s="6">
-        <v>960</v>
-      </c>
-      <c r="E129" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="D129" s="4">
+        <v>920</v>
+      </c>
+      <c r="E129" s="4"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>77</v>
-      </c>
-      <c r="D130" s="6">
-        <v>970</v>
-      </c>
-      <c r="E130" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="D130" s="4">
+        <v>930</v>
+      </c>
+      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>78</v>
-      </c>
-      <c r="D131" s="6">
-        <v>980</v>
-      </c>
-      <c r="E131" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="D131" s="4">
+        <v>940</v>
+      </c>
+      <c r="E131" s="4"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>51</v>
-      </c>
-      <c r="D132" s="6">
-        <v>990</v>
-      </c>
-      <c r="E132" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D132" s="4">
+        <v>950</v>
+      </c>
+      <c r="E132" s="4"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E133" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="D133" s="4">
+        <v>960</v>
+      </c>
+      <c r="E133" s="4"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>53</v>
-      </c>
-      <c r="D134" s="6">
-        <v>1010</v>
-      </c>
-      <c r="E134" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="D134" s="4">
+        <v>970</v>
+      </c>
+      <c r="E134" s="4"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>54</v>
-      </c>
-      <c r="D135" s="6">
-        <v>1020</v>
-      </c>
-      <c r="E135" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="D135" s="4">
+        <v>980</v>
+      </c>
+      <c r="E135" s="4"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1030</v>
-      </c>
-      <c r="E136" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D136" s="4">
+        <v>990</v>
+      </c>
+      <c r="E136" s="4"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137" s="6">
-        <v>1040</v>
-      </c>
-      <c r="E137" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E137" s="4"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>42</v>
-      </c>
-      <c r="D138" s="6">
-        <v>1050</v>
-      </c>
-      <c r="E138" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>43</v>
-      </c>
-      <c r="D139" s="6">
-        <v>1060</v>
-      </c>
-      <c r="E139" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E139" s="4"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>44</v>
-      </c>
-      <c r="D140" s="6">
-        <v>1070</v>
-      </c>
-      <c r="E140" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1030</v>
+      </c>
+      <c r="E140" s="4"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>45</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1080</v>
-      </c>
-      <c r="E141" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1040</v>
+      </c>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>84</v>
-      </c>
-      <c r="D142" s="6">
-        <v>1090</v>
-      </c>
-      <c r="E142" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1050</v>
+      </c>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>85</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E143" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1060</v>
+      </c>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" s="6">
-        <v>1110</v>
-      </c>
-      <c r="E144" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1070</v>
+      </c>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>87</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1120</v>
-      </c>
-      <c r="E145" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1080</v>
+      </c>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>88</v>
-      </c>
-      <c r="D146" s="6">
-        <v>1130</v>
-      </c>
-      <c r="E146" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1090</v>
+      </c>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>46</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1140</v>
-      </c>
-      <c r="E147" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1100</v>
+      </c>
+      <c r="E147" s="4"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>47</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1150</v>
-      </c>
-      <c r="E148" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1110</v>
+      </c>
+      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="6">
-        <v>1160</v>
-      </c>
-      <c r="E149" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1120</v>
+      </c>
+      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" s="6">
-        <v>1170</v>
-      </c>
-      <c r="E150" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1130</v>
+      </c>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>50</v>
-      </c>
-      <c r="D151" s="6">
-        <v>1180</v>
-      </c>
-      <c r="E151" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1140</v>
+      </c>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>96</v>
-      </c>
-      <c r="D152" s="6">
-        <v>1190</v>
-      </c>
-      <c r="E152" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1150</v>
+      </c>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>68</v>
-      </c>
-      <c r="D153" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E153" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1160</v>
+      </c>
+      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>95</v>
-      </c>
-      <c r="D154" s="6">
-        <v>1210</v>
-      </c>
-      <c r="E154" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1170</v>
+      </c>
+      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>97</v>
-      </c>
-      <c r="D155" s="6">
-        <v>1220</v>
-      </c>
-      <c r="E155" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1180</v>
+      </c>
+      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>98</v>
-      </c>
-      <c r="D156" s="6">
-        <v>1230</v>
-      </c>
-      <c r="E156" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1190</v>
+      </c>
+      <c r="E156" s="4"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>89</v>
-      </c>
-      <c r="D157" s="6">
-        <v>1240</v>
-      </c>
-      <c r="E157" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E157" s="4"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>90</v>
-      </c>
-      <c r="D158" s="6">
-        <v>1250</v>
-      </c>
-      <c r="E158" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1210</v>
+      </c>
+      <c r="E158" s="4"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>91</v>
       </c>
-      <c r="D159" s="6">
-        <v>1260</v>
-      </c>
-      <c r="E159" s="6"/>
+      <c r="D159" s="4">
+        <v>1220</v>
+      </c>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>92</v>
       </c>
-      <c r="D160" s="6">
-        <v>1270</v>
-      </c>
-      <c r="E160" s="6"/>
+      <c r="D160" s="4">
+        <v>1230</v>
+      </c>
+      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>94</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1280</v>
-      </c>
-      <c r="E161" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1240</v>
+      </c>
+      <c r="E161" s="4"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>64</v>
-      </c>
-      <c r="D162" s="6">
-        <v>1290</v>
-      </c>
-      <c r="E162" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1250</v>
+      </c>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>65</v>
-      </c>
-      <c r="D163" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E163" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1260</v>
+      </c>
+      <c r="E163" s="4"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>66</v>
-      </c>
-      <c r="D164" s="6">
-        <v>1310</v>
-      </c>
-      <c r="E164" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1270</v>
+      </c>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>67</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1320</v>
-      </c>
-      <c r="E165" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1280</v>
+      </c>
+      <c r="E165" s="4"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>93</v>
-      </c>
-      <c r="D166" s="6">
+        <v>58</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1290</v>
+      </c>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B167" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>60</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1310</v>
+      </c>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B169" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1320</v>
+      </c>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>87</v>
+      </c>
+      <c r="D170" s="4">
         <v>1330</v>
       </c>
-      <c r="E166" s="6"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
+      <c r="E170" s="4"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
